--- a/data/polling_place_list/data.xlsx
+++ b/data/polling_place_list/data.xlsx
@@ -432,14 +432,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>34.347226</v>
-      </c>
-      <c r="C2" t="str">
-        <v>134.032642</v>
+      <c r="B2">
+        <v>34.347330359577256</v>
+      </c>
+      <c r="C2">
+        <v>134.0326534706985</v>
       </c>
       <c r="D2" t="str">
         <v>第1投票区</v>
@@ -461,14 +461,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>34.345756</v>
-      </c>
-      <c r="C3" t="str">
-        <v>134.040999</v>
+      <c r="B3">
+        <v>34.34613690354675</v>
+      </c>
+      <c r="C3">
+        <v>134.04100704662244</v>
       </c>
       <c r="D3" t="str">
         <v>第2投票区</v>
@@ -490,14 +490,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>34.343304</v>
-      </c>
-      <c r="C4" t="str">
-        <v>134.047063</v>
+      <c r="B4">
+        <v>34.34331728774892</v>
+      </c>
+      <c r="C4">
+        <v>134.04701472023817</v>
       </c>
       <c r="D4" t="str">
         <v>第3投票区</v>
@@ -519,14 +519,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>34.340976</v>
-      </c>
-      <c r="C5" t="str">
-        <v>134.033882</v>
+      <c r="B5">
+        <v>34.34063936693734</v>
+      </c>
+      <c r="C5">
+        <v>134.03416363194907</v>
       </c>
       <c r="D5" t="str">
         <v>第4投票区</v>
@@ -548,14 +548,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>34.338419</v>
-      </c>
-      <c r="C6" t="str">
-        <v>134.039996</v>
+      <c r="B6">
+        <v>34.337843161911394</v>
+      </c>
+      <c r="C6">
+        <v>134.03976264781193</v>
       </c>
       <c r="D6" t="str">
         <v>第5投票区</v>
@@ -577,14 +577,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>34.330375</v>
-      </c>
-      <c r="C7" t="str">
-        <v>134.051907</v>
+      <c r="B7">
+        <v>34.33041338972291</v>
+      </c>
+      <c r="C7">
+        <v>134.05188752563225</v>
       </c>
       <c r="D7" t="str">
         <v>第6投票区</v>
@@ -606,14 +606,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>34.326694</v>
-      </c>
-      <c r="C8" t="str">
-        <v>134.051883</v>
+      <c r="B8">
+        <v>34.32675159163966</v>
+      </c>
+      <c r="C8">
+        <v>134.05232556449022</v>
       </c>
       <c r="D8" t="str">
         <v>第7投票区</v>
@@ -635,14 +635,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>34.33385</v>
-      </c>
-      <c r="C9" t="str">
-        <v>134.057267</v>
+      <c r="B9">
+        <v>34.33386771899734</v>
+      </c>
+      <c r="C9">
+        <v>134.05771492890398</v>
       </c>
       <c r="D9" t="str">
         <v>第8投票区</v>
@@ -664,14 +664,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>34.334158</v>
-      </c>
-      <c r="C10" t="str">
-        <v>134.066266</v>
+      <c r="B10">
+        <v>34.33370173620081</v>
+      </c>
+      <c r="C10">
+        <v>134.06733083697696</v>
       </c>
       <c r="D10" t="str">
         <v>第9投票区</v>
@@ -693,14 +693,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>34.33915</v>
-      </c>
-      <c r="C11" t="str">
-        <v>134.061954</v>
+      <c r="B11">
+        <v>34.339296172381225</v>
+      </c>
+      <c r="C11">
+        <v>134.0627506160772</v>
       </c>
       <c r="D11" t="str">
         <v>第10投票区</v>
@@ -722,14 +722,14 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>34.341481</v>
-      </c>
-      <c r="C12" t="str">
-        <v>134.05716</v>
+      <c r="B12">
+        <v>34.34088746542275</v>
+      </c>
+      <c r="C12">
+        <v>134.0568730036365</v>
       </c>
       <c r="D12" t="str">
         <v>第11投票区</v>
@@ -751,14 +751,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>34.344841</v>
-      </c>
-      <c r="C13" t="str">
-        <v>134.056011</v>
+      <c r="B13">
+        <v>34.34378061784314</v>
+      </c>
+      <c r="C13">
+        <v>134.05581126788837</v>
       </c>
       <c r="D13" t="str">
         <v>第12投票区</v>
@@ -780,14 +780,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>34.315545</v>
-      </c>
-      <c r="C14" t="str">
-        <v>134.027039</v>
+      <c r="B14">
+        <v>34.31565133712303</v>
+      </c>
+      <c r="C14">
+        <v>134.02603853603762</v>
       </c>
       <c r="D14" t="str">
         <v>第13投票区</v>
@@ -809,14 +809,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>34.315761</v>
-      </c>
-      <c r="C15" t="str">
-        <v>134.028366</v>
+      <c r="B15">
+        <v>34.31545085008766</v>
+      </c>
+      <c r="C15">
+        <v>134.02812728339507</v>
       </c>
       <c r="D15" t="str">
         <v>第14投票区</v>
@@ -838,14 +838,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>34.305726</v>
-      </c>
-      <c r="C16" t="str">
-        <v>134.04443</v>
+      <c r="B16">
+        <v>34.30583234955981</v>
+      </c>
+      <c r="C16">
+        <v>134.0435207311432</v>
       </c>
       <c r="D16" t="str">
         <v>第15投票区</v>
@@ -867,14 +867,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>34.312045</v>
-      </c>
-      <c r="C17" t="str">
-        <v>134.052128</v>
+      <c r="B17">
+        <v>34.31220008139067</v>
+      </c>
+      <c r="C17">
+        <v>134.05235866997526</v>
       </c>
       <c r="D17" t="str">
         <v>第16投票区</v>
@@ -896,14 +896,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>34.31188</v>
-      </c>
-      <c r="C18" t="str">
-        <v>134.062834</v>
+      <c r="B18">
+        <v>34.311490079042755</v>
+      </c>
+      <c r="C18">
+        <v>134.0627723091892</v>
       </c>
       <c r="D18" t="str">
         <v>第17投票区</v>
@@ -925,14 +925,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>34.320841</v>
-      </c>
-      <c r="C19" t="str">
-        <v>134.075544</v>
+      <c r="B19">
+        <v>34.32068150412789</v>
+      </c>
+      <c r="C19">
+        <v>134.07401245865356</v>
       </c>
       <c r="D19" t="str">
         <v>第18投票区</v>
@@ -954,14 +954,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>34.325096</v>
-      </c>
-      <c r="C20" t="str">
-        <v>134.076823</v>
+      <c r="B20">
+        <v>34.325663065230714</v>
+      </c>
+      <c r="C20">
+        <v>134.07687396196792</v>
       </c>
       <c r="D20" t="str">
         <v>第19投票区</v>
@@ -983,14 +983,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>34.335848</v>
-      </c>
-      <c r="C21" t="str">
-        <v>134.079912</v>
+      <c r="B21">
+        <v>34.33578155530796</v>
+      </c>
+      <c r="C21">
+        <v>134.0807032516592</v>
       </c>
       <c r="D21" t="str">
         <v>第20投票区</v>
@@ -1012,14 +1012,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>34.325661</v>
-      </c>
-      <c r="C22" t="str">
-        <v>134.091286</v>
+      <c r="B22">
+        <v>34.325776184657926</v>
+      </c>
+      <c r="C22">
+        <v>134.09136914847858</v>
       </c>
       <c r="D22" t="str">
         <v>第21投票区</v>
@@ -1041,14 +1041,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <v>34.332405</v>
-      </c>
-      <c r="C23" t="str">
-        <v>134.106591</v>
+      <c r="B23">
+        <v>34.3316120573715</v>
+      </c>
+      <c r="C23">
+        <v>134.10729642097056</v>
       </c>
       <c r="D23" t="str">
         <v>第22投票区</v>
@@ -1070,14 +1070,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <v>34.347316</v>
-      </c>
-      <c r="C24" t="str">
-        <v>134.100637</v>
+      <c r="B24">
+        <v>34.34773675761599</v>
+      </c>
+      <c r="C24">
+        <v>134.09930930653059</v>
       </c>
       <c r="D24" t="str">
         <v>第23投票区</v>
@@ -1099,14 +1099,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <v>34.354208</v>
-      </c>
-      <c r="C25" t="str">
-        <v>134.116611</v>
+      <c r="B25">
+        <v>34.354367432131326</v>
+      </c>
+      <c r="C25">
+        <v>134.11644202083016</v>
       </c>
       <c r="D25" t="str">
         <v>第24投票区</v>
@@ -1128,14 +1128,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <v>34.296382</v>
-      </c>
-      <c r="C26" t="str">
-        <v>134.113177</v>
+      <c r="B26">
+        <v>34.29621802592392</v>
+      </c>
+      <c r="C26">
+        <v>134.11251449437623</v>
       </c>
       <c r="D26" t="str">
         <v>第25投票区</v>
@@ -1157,14 +1157,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>34.306199</v>
-      </c>
-      <c r="C27" t="str">
-        <v>134.093043</v>
+      <c r="B27">
+        <v>34.306916852868326</v>
+      </c>
+      <c r="C27">
+        <v>134.09299740244194</v>
       </c>
       <c r="D27" t="str">
         <v>第26投票区</v>
@@ -1186,14 +1186,14 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <v>34.301612</v>
-      </c>
-      <c r="C28" t="str">
-        <v>134.069787</v>
+      <c r="B28">
+        <v>34.30170506043102</v>
+      </c>
+      <c r="C28">
+        <v>134.07009545403827</v>
       </c>
       <c r="D28" t="str">
         <v>第27投票区</v>
@@ -1215,14 +1215,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <v>34.27407</v>
-      </c>
-      <c r="C29" t="str">
-        <v>134.068506</v>
+      <c r="B29">
+        <v>34.273914848208705</v>
+      </c>
+      <c r="C29">
+        <v>134.06908803935812</v>
       </c>
       <c r="D29" t="str">
         <v>第28投票区</v>
@@ -1244,14 +1244,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <v>34.291913</v>
-      </c>
-      <c r="C30" t="str">
-        <v>134.052581</v>
+      <c r="B30">
+        <v>34.29254233642294</v>
+      </c>
+      <c r="C30">
+        <v>134.05256222453465</v>
       </c>
       <c r="D30" t="str">
         <v>第29投票区</v>
@@ -1273,14 +1273,14 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <v>34.274732</v>
-      </c>
-      <c r="C31" t="str">
-        <v>134.047781</v>
+      <c r="B31">
+        <v>34.274266547433214</v>
+      </c>
+      <c r="C31">
+        <v>134.0471238587901</v>
       </c>
       <c r="D31" t="str">
         <v>第30投票区</v>
@@ -1302,14 +1302,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <v>34.291104</v>
-      </c>
-      <c r="C32" t="str">
-        <v>134.024168</v>
+      <c r="B32">
+        <v>34.29084694326552</v>
+      </c>
+      <c r="C32">
+        <v>134.02389441468313</v>
       </c>
       <c r="D32" t="str">
         <v>第31投票区</v>
@@ -1331,14 +1331,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
-        <v>34.279858</v>
-      </c>
-      <c r="C33" t="str">
-        <v>134.022473</v>
+      <c r="B33">
+        <v>34.2798462171849</v>
+      </c>
+      <c r="C33">
+        <v>134.02242597631357</v>
       </c>
       <c r="D33" t="str">
         <v>第32投票区</v>
@@ -1360,14 +1360,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
-        <v>34.26759</v>
-      </c>
-      <c r="C34" t="str">
-        <v>134.006993</v>
+      <c r="B34">
+        <v>34.26746143577152</v>
+      </c>
+      <c r="C34">
+        <v>134.00643241831926</v>
       </c>
       <c r="D34" t="str">
         <v>第33投票区</v>
@@ -1389,14 +1389,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <v>34.285043</v>
-      </c>
-      <c r="C35" t="str">
-        <v>134.00388</v>
+      <c r="B35">
+        <v>34.28470171023693</v>
+      </c>
+      <c r="C35">
+        <v>134.00503603208676</v>
       </c>
       <c r="D35" t="str">
         <v>第34投票区</v>
@@ -1418,14 +1418,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <v>34.300177</v>
-      </c>
-      <c r="C36" t="str">
-        <v>133.994422</v>
+      <c r="B36">
+        <v>34.30042959667307</v>
+      </c>
+      <c r="C36">
+        <v>133.99385068947947</v>
       </c>
       <c r="D36" t="str">
         <v>第35投票区</v>
@@ -1447,14 +1447,14 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
-        <v>34.328406</v>
-      </c>
-      <c r="C37" t="str">
-        <v>134.004553</v>
+      <c r="B37">
+        <v>34.328990762890314</v>
+      </c>
+      <c r="C37">
+        <v>134.00545690443403</v>
       </c>
       <c r="D37" t="str">
         <v>第36投票区</v>
@@ -1476,14 +1476,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
-        <v>34.326826</v>
-      </c>
-      <c r="C38" t="str">
-        <v>133.990697</v>
+      <c r="B38">
+        <v>34.32667094563094</v>
+      </c>
+      <c r="C38">
+        <v>133.988580737088</v>
       </c>
       <c r="D38" t="str">
         <v>第37投票区</v>
@@ -1505,14 +1505,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
-        <v>34.344806</v>
-      </c>
-      <c r="C39" t="str">
-        <v>133.998259</v>
+      <c r="B39">
+        <v>34.345217911912144</v>
+      </c>
+      <c r="C39">
+        <v>133.99855136077605</v>
       </c>
       <c r="D39" t="str">
         <v>第38投票区</v>
@@ -1534,14 +1534,14 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
-        <v>34.358386</v>
-      </c>
-      <c r="C40" t="str">
-        <v>133.967994</v>
+      <c r="B40">
+        <v>34.35806715072141</v>
+      </c>
+      <c r="C40">
+        <v>133.96869942097356</v>
       </c>
       <c r="D40" t="str">
         <v>第39投票区</v>
@@ -1563,14 +1563,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
-        <v>34.391681</v>
-      </c>
-      <c r="C41" t="str">
-        <v>134.052529</v>
+      <c r="B41">
+        <v>34.39209710817687</v>
+      </c>
+      <c r="C41">
+        <v>134.0517055618272</v>
       </c>
       <c r="D41" t="str">
         <v>第40投票区</v>
@@ -1592,14 +1592,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <v>34.421031</v>
-      </c>
-      <c r="C42" t="str">
-        <v>134.0555</v>
+      <c r="B42">
+        <v>34.42245501305557</v>
+      </c>
+      <c r="C42">
+        <v>134.0541422884407</v>
       </c>
       <c r="D42" t="str">
         <v>第41投票区</v>
@@ -1611,7 +1611,7 @@
         <v>オギコミュニティセンター</v>
       </c>
       <c r="G42" t="str">
-        <v>香川県高松市男木町134</v>
+        <v>香川県高松市男木町1988</v>
       </c>
       <c r="H42" t="str">
         <v>香川県第１区</v>
@@ -1621,14 +1621,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <v>34.275668</v>
-      </c>
-      <c r="C43" t="str">
-        <v>134.08907</v>
+      <c r="B43">
+        <v>34.27577882042698</v>
+      </c>
+      <c r="C43">
+        <v>134.0893462675271</v>
       </c>
       <c r="D43" t="str">
         <v>第42投票区</v>
@@ -1650,14 +1650,14 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
-        <v>34.274712</v>
-      </c>
-      <c r="C44" t="str">
-        <v>134.102236</v>
+      <c r="B44">
+        <v>34.2745612822727</v>
+      </c>
+      <c r="C44">
+        <v>134.1028663191189</v>
       </c>
       <c r="D44" t="str">
         <v>第43投票区</v>
@@ -1679,14 +1679,14 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
-        <v>34.238958</v>
-      </c>
-      <c r="C45" t="str">
-        <v>134.097899</v>
+      <c r="B45">
+        <v>34.23911321627226</v>
+      </c>
+      <c r="C45">
+        <v>134.09757445270856</v>
       </c>
       <c r="D45" t="str">
         <v>第44投票区</v>
@@ -1708,14 +1708,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
-        <v>34.193567</v>
-      </c>
-      <c r="C46" t="str">
-        <v>134.098236</v>
+      <c r="B46">
+        <v>34.193702120066035</v>
+      </c>
+      <c r="C46">
+        <v>134.09808161188482</v>
       </c>
       <c r="D46" t="str">
         <v>第45投票区</v>
@@ -1737,14 +1737,14 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
-        <v>34.239421</v>
-      </c>
-      <c r="C47" t="str">
-        <v>134.077851</v>
+      <c r="B47">
+        <v>34.23940326107811</v>
+      </c>
+      <c r="C47">
+        <v>134.0789694811465</v>
       </c>
       <c r="D47" t="str">
         <v>第46投票区</v>
@@ -1766,14 +1766,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="str">
-        <v>34.326985</v>
-      </c>
-      <c r="C48" t="str">
-        <v>134.098855</v>
+      <c r="B48">
+        <v>34.32756977279172</v>
+      </c>
+      <c r="C48">
+        <v>134.09900252149475</v>
       </c>
       <c r="D48" t="str">
         <v>第47投票区</v>
@@ -1795,14 +1795,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
-        <v>34.351725</v>
-      </c>
-      <c r="C49" t="str">
-        <v>134.090476</v>
+      <c r="B49">
+        <v>34.35097209964826</v>
+      </c>
+      <c r="C49">
+        <v>134.08998515574802</v>
       </c>
       <c r="D49" t="str">
         <v>第48投票区</v>
@@ -1824,14 +1824,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
-        <v>34.196482</v>
-      </c>
-      <c r="C50" t="str">
-        <v>134.042363</v>
+      <c r="B50">
+        <v>34.19621134311019</v>
+      </c>
+      <c r="C50">
+        <v>134.041518104158</v>
       </c>
       <c r="D50" t="str">
         <v>第49投票区</v>
@@ -1853,14 +1853,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="str">
-        <v>34.154981</v>
-      </c>
-      <c r="C51" t="str">
-        <v>134.025195</v>
+      <c r="B51">
+        <v>34.156126299060745</v>
+      </c>
+      <c r="C51">
+        <v>134.02457272750326</v>
       </c>
       <c r="D51" t="str">
         <v>第50投票区</v>
@@ -1882,14 +1882,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="str">
-        <v>34.171672</v>
-      </c>
-      <c r="C52" t="str">
-        <v>134.082657</v>
+      <c r="B52">
+        <v>34.170083156828326</v>
+      </c>
+      <c r="C52">
+        <v>134.08332020100045</v>
       </c>
       <c r="D52" t="str">
         <v>第51投票区</v>
@@ -1911,14 +1911,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
-        <v>34.151888</v>
-      </c>
-      <c r="C53" t="str">
-        <v>134.076605</v>
+      <c r="B53">
+        <v>34.15250506549383</v>
+      </c>
+      <c r="C53">
+        <v>134.076537944773</v>
       </c>
       <c r="D53" t="str">
         <v>第52投票区</v>
@@ -1940,14 +1940,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
-        <v>34.124467</v>
-      </c>
-      <c r="C54" t="str">
-        <v>134.073137</v>
+      <c r="B54">
+        <v>34.12613671569673</v>
+      </c>
+      <c r="C54">
+        <v>134.07382096329428</v>
       </c>
       <c r="D54" t="str">
         <v>第53投票区</v>
@@ -1969,14 +1969,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" t="str">
-        <v>34.240305</v>
-      </c>
-      <c r="C55" t="str">
-        <v>134.018946</v>
+      <c r="B55">
+        <v>34.24030943468286</v>
+      </c>
+      <c r="C55">
+        <v>134.01899159755146</v>
       </c>
       <c r="D55" t="str">
         <v>第55投票区</v>
@@ -1998,14 +1998,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" t="str">
-        <v>34.245059</v>
-      </c>
-      <c r="C56" t="str">
-        <v>134.000428</v>
+      <c r="B56">
+        <v>34.24521420502218</v>
+      </c>
+      <c r="C56">
+        <v>134.0003609447739</v>
       </c>
       <c r="D56" t="str">
         <v>第56投票区</v>
@@ -2027,23 +2027,23 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57">
         <v>57</v>
       </c>
-      <c r="B57" t="str">
-        <v>34.267021</v>
-      </c>
-      <c r="C57" t="str">
-        <v>134.026228</v>
+      <c r="B57">
+        <v>34.26693233443602</v>
+      </c>
+      <c r="C57">
+        <v>134.02698170073268</v>
       </c>
       <c r="D57" t="str">
         <v>第57投票区</v>
       </c>
       <c r="E57" t="str">
-        <v>大野小学校南校舎（特別活動室）</v>
+        <v>大野小学校南校舎（教育相談室）</v>
       </c>
       <c r="F57" t="str">
-        <v>オオノショウガッコウミナミコウシャ（トクベツカツドウシツ）</v>
+        <v>オオノショウガッコウミナミコウシャ（キョウイクソウダンシツ）</v>
       </c>
       <c r="G57" t="str">
         <v>香川県高松市香川町大野1045-1</v>
@@ -2056,14 +2056,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58">
         <v>58</v>
       </c>
-      <c r="B58" t="str">
-        <v>34.25899</v>
-      </c>
-      <c r="C58" t="str">
-        <v>134.041253</v>
+      <c r="B58">
+        <v>34.25935799622627</v>
+      </c>
+      <c r="C58">
+        <v>134.04082116434813</v>
       </c>
       <c r="D58" t="str">
         <v>第58投票区</v>
@@ -2085,14 +2085,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" t="str">
-        <v>34.241158</v>
-      </c>
-      <c r="C59" t="str">
-        <v>134.034113</v>
+      <c r="B59">
+        <v>34.24146398952223</v>
+      </c>
+      <c r="C59">
+        <v>134.03442681845326</v>
       </c>
       <c r="D59" t="str">
         <v>第59投票区</v>
@@ -2114,14 +2114,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
+      <c r="A60">
         <v>60</v>
       </c>
-      <c r="B60" t="str">
-        <v>34.204636</v>
-      </c>
-      <c r="C60" t="str">
-        <v>134.061702</v>
+      <c r="B60">
+        <v>34.20446741047704</v>
+      </c>
+      <c r="C60">
+        <v>134.06169395337304</v>
       </c>
       <c r="D60" t="str">
         <v>第60投票区</v>
@@ -2143,14 +2143,14 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61" t="str">
-        <v>34.211938</v>
-      </c>
-      <c r="C61" t="str">
-        <v>134.031248</v>
+      <c r="B61">
+        <v>34.21202672350552</v>
+      </c>
+      <c r="C61">
+        <v>134.03140088591272</v>
       </c>
       <c r="D61" t="str">
         <v>第61投票区</v>
@@ -2172,14 +2172,14 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
+      <c r="A62">
         <v>62</v>
       </c>
-      <c r="B62" t="str">
-        <v>34.306114</v>
-      </c>
-      <c r="C62" t="str">
-        <v>133.962785</v>
+      <c r="B62">
+        <v>34.30614944970483</v>
+      </c>
+      <c r="C62">
+        <v>133.96384447256042</v>
       </c>
       <c r="D62" t="str">
         <v>第62投票区</v>
@@ -2201,14 +2201,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" t="str">
-        <v>34.297636</v>
-      </c>
-      <c r="C63" t="str">
-        <v>133.963947</v>
+      <c r="B63">
+        <v>34.297339078167894</v>
+      </c>
+      <c r="C63">
+        <v>133.96489918419928</v>
       </c>
       <c r="D63" t="str">
         <v>第63投票区</v>
@@ -2230,14 +2230,14 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
+      <c r="A64">
         <v>64</v>
       </c>
-      <c r="B64" t="str">
-        <v>34.28396</v>
-      </c>
-      <c r="C64" t="str">
-        <v>133.961275</v>
+      <c r="B64">
+        <v>34.28372508338839</v>
+      </c>
+      <c r="C64">
+        <v>133.96099873247357</v>
       </c>
       <c r="D64" t="str">
         <v>第64投票区</v>
@@ -2259,14 +2259,14 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
+      <c r="A65">
         <v>65</v>
       </c>
-      <c r="B65" t="str">
-        <v>34.384035</v>
-      </c>
-      <c r="C65" t="str">
-        <v>134.126592</v>
+      <c r="B65">
+        <v>34.384380312932194</v>
+      </c>
+      <c r="C65">
+        <v>134.12660541105458</v>
       </c>
       <c r="D65" t="str">
         <v>第65投票区</v>
@@ -2288,14 +2288,14 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
+      <c r="A66">
         <v>66</v>
       </c>
-      <c r="B66" t="str">
-        <v>34.391472</v>
-      </c>
-      <c r="C66" t="str">
-        <v>134.152642</v>
+      <c r="B66">
+        <v>34.391467573295</v>
+      </c>
+      <c r="C66">
+        <v>134.1528431656763</v>
       </c>
       <c r="D66" t="str">
         <v>第66投票区</v>
@@ -2317,14 +2317,14 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
+      <c r="A67">
         <v>67</v>
       </c>
-      <c r="B67" t="str">
-        <v>34.365439</v>
-      </c>
-      <c r="C67" t="str">
-        <v>134.155871</v>
+      <c r="B67">
+        <v>34.364858919372935</v>
+      </c>
+      <c r="C67">
+        <v>134.15661397189854</v>
       </c>
       <c r="D67" t="str">
         <v>第67投票区</v>
@@ -2346,14 +2346,14 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
+      <c r="A68">
         <v>68</v>
       </c>
-      <c r="B68" t="str">
-        <v>34.408761</v>
-      </c>
-      <c r="C68" t="str">
-        <v>134.106256</v>
+      <c r="B68">
+        <v>34.40961074741702</v>
+      </c>
+      <c r="C68">
+        <v>134.10672270437573</v>
       </c>
       <c r="D68" t="str">
         <v>第68投票区</v>
@@ -2375,14 +2375,14 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
+      <c r="A69">
         <v>69</v>
       </c>
-      <c r="B69" t="str">
-        <v>34.333754</v>
-      </c>
-      <c r="C69" t="str">
-        <v>134.152805</v>
+      <c r="B69">
+        <v>34.3339267602656</v>
+      </c>
+      <c r="C69">
+        <v>134.15208885019035</v>
       </c>
       <c r="D69" t="str">
         <v>第69投票区</v>
@@ -2394,7 +2394,7 @@
         <v>ムレミナミショウガッコウタイイクカン</v>
       </c>
       <c r="G69" t="str">
-        <v>香川県高松市牟礼町大町1115－1</v>
+        <v>香川県高松市牟礼町大町1115-1</v>
       </c>
       <c r="H69" t="str">
         <v>香川県第２区</v>
@@ -2404,14 +2404,14 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
+      <c r="A70">
         <v>70</v>
       </c>
-      <c r="B70" t="str">
-        <v>34.336143</v>
-      </c>
-      <c r="C70" t="str">
-        <v>134.141701</v>
+      <c r="B70">
+        <v>34.336138570372</v>
+      </c>
+      <c r="C70">
+        <v>134.14268537070802</v>
       </c>
       <c r="D70" t="str">
         <v>第70投票区</v>
@@ -2433,14 +2433,14 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
+      <c r="A71">
         <v>71</v>
       </c>
-      <c r="B71" t="str">
-        <v>34.350782</v>
-      </c>
-      <c r="C71" t="str">
-        <v>134.125807</v>
+      <c r="B71">
+        <v>34.35111416350888</v>
+      </c>
+      <c r="C71">
+        <v>134.1255468257222</v>
       </c>
       <c r="D71" t="str">
         <v>第71投票区</v>

--- a/data/polling_place_list/data.xlsx
+++ b/data/polling_place_list/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,14 +432,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>34.347330359577256</v>
-      </c>
-      <c r="C2">
-        <v>134.0326534706985</v>
+      <c r="B2" t="str">
+        <v>34.34733036</v>
+      </c>
+      <c r="C2" t="str">
+        <v>134.0326535</v>
       </c>
       <c r="D2" t="str">
         <v>第1投票区</v>
@@ -461,14 +461,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>34.34613690354675</v>
-      </c>
-      <c r="C3">
-        <v>134.04100704662244</v>
+      <c r="B3" t="str">
+        <v>34.3461369</v>
+      </c>
+      <c r="C3" t="str">
+        <v>134.041007</v>
       </c>
       <c r="D3" t="str">
         <v>第2投票区</v>
@@ -490,14 +490,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="str">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>34.34331728774892</v>
-      </c>
-      <c r="C4">
-        <v>134.04701472023817</v>
+      <c r="B4" t="str">
+        <v>34.34331729</v>
+      </c>
+      <c r="C4" t="str">
+        <v>134.0470147</v>
       </c>
       <c r="D4" t="str">
         <v>第3投票区</v>
@@ -519,14 +519,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="str">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>34.34063936693734</v>
-      </c>
-      <c r="C5">
-        <v>134.03416363194907</v>
+      <c r="B5" t="str">
+        <v>34.34063937</v>
+      </c>
+      <c r="C5" t="str">
+        <v>134.0341636</v>
       </c>
       <c r="D5" t="str">
         <v>第4投票区</v>
@@ -548,14 +548,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="str">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>34.337843161911394</v>
-      </c>
-      <c r="C6">
-        <v>134.03976264781193</v>
+      <c r="B6" t="str">
+        <v>34.33784316</v>
+      </c>
+      <c r="C6" t="str">
+        <v>134.0397626</v>
       </c>
       <c r="D6" t="str">
         <v>第5投票区</v>
@@ -577,14 +577,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="str">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>34.33041338972291</v>
-      </c>
-      <c r="C7">
-        <v>134.05188752563225</v>
+      <c r="B7" t="str">
+        <v>34.33041339</v>
+      </c>
+      <c r="C7" t="str">
+        <v>134.0518875</v>
       </c>
       <c r="D7" t="str">
         <v>第6投票区</v>
@@ -606,14 +606,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="str">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>34.32675159163966</v>
-      </c>
-      <c r="C8">
-        <v>134.05232556449022</v>
+      <c r="B8" t="str">
+        <v>34.32675159</v>
+      </c>
+      <c r="C8" t="str">
+        <v>134.0523256</v>
       </c>
       <c r="D8" t="str">
         <v>第7投票区</v>
@@ -635,14 +635,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="str">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>34.33386771899734</v>
-      </c>
-      <c r="C9">
-        <v>134.05771492890398</v>
+      <c r="B9" t="str">
+        <v>34.33386772</v>
+      </c>
+      <c r="C9" t="str">
+        <v>134.0577149</v>
       </c>
       <c r="D9" t="str">
         <v>第8投票区</v>
@@ -664,14 +664,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="str">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>34.33370173620081</v>
-      </c>
-      <c r="C10">
-        <v>134.06733083697696</v>
+      <c r="B10" t="str">
+        <v>34.33370174</v>
+      </c>
+      <c r="C10" t="str">
+        <v>134.0673308</v>
       </c>
       <c r="D10" t="str">
         <v>第9投票区</v>
@@ -693,14 +693,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="str">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>34.339296172381225</v>
-      </c>
-      <c r="C11">
-        <v>134.0627506160772</v>
+      <c r="B11" t="str">
+        <v>34.33929617</v>
+      </c>
+      <c r="C11" t="str">
+        <v>134.0627506</v>
       </c>
       <c r="D11" t="str">
         <v>第10投票区</v>
@@ -722,23 +722,23 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="str">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>34.34088746542275</v>
-      </c>
-      <c r="C12">
-        <v>134.0568730036365</v>
+      <c r="B12" t="str">
+        <v>34.34125953</v>
+      </c>
+      <c r="C12" t="str">
+        <v>134.0568435</v>
       </c>
       <c r="D12" t="str">
         <v>第11投票区</v>
       </c>
       <c r="E12" t="str">
-        <v>旧築地小学校体育館</v>
+        <v>築地コミュニティセンター</v>
       </c>
       <c r="F12" t="str">
-        <v>キュウツキジショウガッコウタイイクカン</v>
+        <v>ツキジコミュニティセンター</v>
       </c>
       <c r="G12" t="str">
         <v>香川県高松市築地町14-1</v>
@@ -746,1724 +746,1750 @@
       <c r="H12" t="str">
         <v>香川県第１区</v>
       </c>
-      <c r="I12" t="str">
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <v>34.34088747</v>
+      </c>
+      <c r="C13" t="str">
+        <v>134.056873</v>
+      </c>
+      <c r="D13" t="str">
+        <v>第11投票区</v>
+      </c>
+      <c r="E13" t="str">
+        <v>旧築地小学校体育館</v>
+      </c>
+      <c r="F13" t="str">
+        <v>キュウツキジショウガッコウタイイクカン</v>
+      </c>
+      <c r="G13" t="str">
+        <v>香川県高松市築地町14-1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I13" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.341481%252C134.05716&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3b</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
+    <row r="14">
+      <c r="A14" t="str">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>34.34378061784314</v>
-      </c>
-      <c r="C13">
-        <v>134.05581126788837</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="B14" t="str">
+        <v>34.34378062</v>
+      </c>
+      <c r="C14" t="str">
+        <v>134.0558113</v>
+      </c>
+      <c r="D14" t="str">
         <v>第12投票区</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" t="str">
         <v>旧新塩屋町小学校体育館</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F14" t="str">
         <v>キュウシンシオヤマチショウガッコウタイイクカン</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
         <v>香川県高松市末広町5</v>
       </c>
-      <c r="H13" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I13" t="str">
+      <c r="H14" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I14" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.344841%252C134.056011&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f1b</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14">
+    <row r="15">
+      <c r="A15" t="str">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>34.31565133712303</v>
-      </c>
-      <c r="C14">
-        <v>134.02603853603762</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="B15" t="str">
+        <v>34.31565134</v>
+      </c>
+      <c r="C15" t="str">
+        <v>134.0260385</v>
+      </c>
+      <c r="D15" t="str">
         <v>第13投票区</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E15" t="str">
         <v>旧鶴尾中学校体育館</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F15" t="str">
         <v>キュウツルオチュウガッコウタイイクカン</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G15" t="str">
         <v>香川県高松市松並町639-1</v>
       </c>
-      <c r="H14" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="H15" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I15" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.315545%252C134.027039&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f1a</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
+    <row r="16">
+      <c r="A16" t="str">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>34.31545085008766</v>
-      </c>
-      <c r="C15">
-        <v>134.02812728339507</v>
-      </c>
-      <c r="D15" t="str">
+      <c r="B16" t="str">
+        <v>34.31545085</v>
+      </c>
+      <c r="C16" t="str">
+        <v>134.0281273</v>
+      </c>
+      <c r="D16" t="str">
         <v>第14投票区</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E16" t="str">
         <v>鶴尾小学校体育館</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F16" t="str">
         <v>ツルオショウガッコウタイイクカン</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G16" t="str">
         <v>香川県高松市松並町636-1</v>
       </c>
-      <c r="H15" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I15" t="str">
+      <c r="H16" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I16" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.315761%252C134.028366&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16">
+    <row r="17">
+      <c r="A17" t="str">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>34.30583234955981</v>
-      </c>
-      <c r="C16">
-        <v>134.0435207311432</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="B17" t="str">
+        <v>34.30583235</v>
+      </c>
+      <c r="C17" t="str">
+        <v>134.0435207</v>
+      </c>
+      <c r="D17" t="str">
         <v>第15投票区</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E17" t="str">
         <v>太田南小学校体育館</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F17" t="str">
         <v>オオタミナミショウガッコウタイイクカン</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G17" t="str">
         <v>香川県高松市太田下町1823-1</v>
       </c>
-      <c r="H16" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I16" t="str">
+      <c r="H17" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I17" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.305726%252C134.04443&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
+    <row r="18">
+      <c r="A18" t="str">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>34.31220008139067</v>
-      </c>
-      <c r="C17">
-        <v>134.05235866997526</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="B18" t="str">
+        <v>34.31220008</v>
+      </c>
+      <c r="C18" t="str">
+        <v>134.0523587</v>
+      </c>
+      <c r="D18" t="str">
         <v>第16投票区</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E18" t="str">
         <v>太田小学校体育館</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F18" t="str">
         <v>オオタショウガッコウタイイクカン</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G18" t="str">
         <v>香川県高松市伏石町845-1</v>
       </c>
-      <c r="H17" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="H18" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I18" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.312045%252C134.052128&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18">
+    <row r="19">
+      <c r="A19" t="str">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>34.311490079042755</v>
-      </c>
-      <c r="C18">
-        <v>134.0627723091892</v>
-      </c>
-      <c r="D18" t="str">
+      <c r="B19" t="str">
+        <v>34.31149008</v>
+      </c>
+      <c r="C19" t="str">
+        <v>134.0627723</v>
+      </c>
+      <c r="D19" t="str">
         <v>第17投票区</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E19" t="str">
         <v>中央小学校体育館</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F19" t="str">
         <v>チュウオウショウガッコウタイイクカン</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G19" t="str">
         <v>香川県高松市松縄町1138</v>
       </c>
-      <c r="H18" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I18" t="str">
+      <c r="H19" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I19" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.31188%252C134.062834&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19">
+    <row r="20">
+      <c r="A20" t="str">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>34.32068150412789</v>
-      </c>
-      <c r="C19">
-        <v>134.07401245865356</v>
-      </c>
-      <c r="D19" t="str">
+      <c r="B20" t="str">
+        <v>34.3206815</v>
+      </c>
+      <c r="C20" t="str">
+        <v>134.0740125</v>
+      </c>
+      <c r="D20" t="str">
         <v>第18投票区</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E20" t="str">
         <v>木太南小学校体育館</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F20" t="str">
         <v>キタミナミショウガッコウタイイクカン</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G20" t="str">
         <v>香川県高松市木太町1530-1</v>
       </c>
-      <c r="H19" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I19" t="str">
+      <c r="H20" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I20" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.320841%252C134.075544&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
+    <row r="21">
+      <c r="A21" t="str">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>34.325663065230714</v>
-      </c>
-      <c r="C20">
-        <v>134.07687396196792</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="B21" t="str">
+        <v>34.32566307</v>
+      </c>
+      <c r="C21" t="str">
+        <v>134.076874</v>
+      </c>
+      <c r="D21" t="str">
         <v>第19投票区</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E21" t="str">
         <v>木太小学校体育館</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F21" t="str">
         <v>キタショウガッコウタイイクカン</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G21" t="str">
         <v>香川県高松市木太町3480-1</v>
       </c>
-      <c r="H20" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I20" t="str">
+      <c r="H21" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I21" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.325096%252C134.076823&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
+    <row r="22">
+      <c r="A22" t="str">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>34.33578155530796</v>
-      </c>
-      <c r="C21">
-        <v>134.0807032516592</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="B22" t="str">
+        <v>34.33578156</v>
+      </c>
+      <c r="C22" t="str">
+        <v>134.0807033</v>
+      </c>
+      <c r="D22" t="str">
         <v>第20投票区</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <v>木太北部小学校体育館</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F22" t="str">
         <v>キタホクブショウガッコウタイイクカン</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G22" t="str">
         <v>香川県高松市木太町2613</v>
       </c>
-      <c r="H21" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I21" t="str">
+      <c r="H22" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I22" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.335848%252C134.079912&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22">
+    <row r="23">
+      <c r="A23" t="str">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>34.325776184657926</v>
-      </c>
-      <c r="C22">
-        <v>134.09136914847858</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="B23" t="str">
+        <v>34.32577618</v>
+      </c>
+      <c r="C23" t="str">
+        <v>134.0913691</v>
+      </c>
+      <c r="D23" t="str">
         <v>第21投票区</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <v>春日幼稚園</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F23" t="str">
         <v>カスガヨウチエン</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <v>香川県高松市春日町744</v>
       </c>
-      <c r="H22" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I22" t="str">
+      <c r="H23" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I23" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.325661%252C134.091286&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000fd9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23">
+    <row r="24">
+      <c r="A24" t="str">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>34.3316120573715</v>
-      </c>
-      <c r="C23">
-        <v>134.10729642097056</v>
-      </c>
-      <c r="D23" t="str">
+      <c r="B24" t="str">
+        <v>34.33161206</v>
+      </c>
+      <c r="C24" t="str">
+        <v>134.1072964</v>
+      </c>
+      <c r="D24" t="str">
         <v>第22投票区</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <v>古高松小学校体育館</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <v>フルタカマツショウガッコウタイイクカン</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <v>香川県高松市高松町398</v>
       </c>
-      <c r="H23" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I23" t="str">
+      <c r="H24" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I24" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.332405%252C134.106591&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24">
+    <row r="25">
+      <c r="A25" t="str">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>34.34773675761599</v>
-      </c>
-      <c r="C24">
-        <v>134.09930930653059</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="B25" t="str">
+        <v>34.34773676</v>
+      </c>
+      <c r="C25" t="str">
+        <v>134.0993093</v>
+      </c>
+      <c r="D25" t="str">
         <v>第23投票区</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E25" t="str">
         <v>屋島小学校体育館</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F25" t="str">
         <v>ヤシマショウガッコウタイイクカン</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G25" t="str">
         <v>香川県高松市屋島西町1205-1</v>
       </c>
-      <c r="H24" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I24" t="str">
+      <c r="H25" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I25" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.347316%252C134.100637&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
+    <row r="26">
+      <c r="A26" t="str">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>34.354367432131326</v>
-      </c>
-      <c r="C25">
-        <v>134.11644202083016</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="B26" t="str">
+        <v>34.35436743</v>
+      </c>
+      <c r="C26" t="str">
+        <v>134.116442</v>
+      </c>
+      <c r="D26" t="str">
         <v>第24投票区</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E26" t="str">
         <v>屋島東小学校体育館</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F26" t="str">
         <v>ヤシマヒガシショウガッコウタイイクカン</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G26" t="str">
         <v>香川県高松市屋島東町942-1</v>
       </c>
-      <c r="H25" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I25" t="str">
+      <c r="H26" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I26" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.354208%252C134.116611&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26">
+    <row r="27">
+      <c r="A27" t="str">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>34.29621802592392</v>
-      </c>
-      <c r="C26">
-        <v>134.11251449437623</v>
-      </c>
-      <c r="D26" t="str">
+      <c r="B27" t="str">
+        <v>34.29621803</v>
+      </c>
+      <c r="C27" t="str">
+        <v>134.1125145</v>
+      </c>
+      <c r="D27" t="str">
         <v>第25投票区</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E27" t="str">
         <v>前田小学校体育館</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F27" t="str">
         <v>マエダショウガッコウタイイクカン</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G27" t="str">
         <v>香川県高松市前田東町819-3</v>
       </c>
-      <c r="H26" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I26" t="str">
+      <c r="H27" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I27" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.296382%252C134.113177&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27">
+    <row r="28">
+      <c r="A28" t="str">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>34.306916852868326</v>
-      </c>
-      <c r="C27">
-        <v>134.09299740244194</v>
-      </c>
-      <c r="D27" t="str">
+      <c r="B28" t="str">
+        <v>34.30691685</v>
+      </c>
+      <c r="C28" t="str">
+        <v>134.0929974</v>
+      </c>
+      <c r="D28" t="str">
         <v>第26投票区</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E28" t="str">
         <v>川添小学校体育館</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <v>カワゾエショウガッコウタイイクカン</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <v>香川県高松市東山崎町207-1</v>
       </c>
-      <c r="H27" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I27" t="str">
+      <c r="H28" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I28" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306199%252C134.093043&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28">
+    <row r="29">
+      <c r="A29" t="str">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>34.30170506043102</v>
-      </c>
-      <c r="C28">
-        <v>134.07009545403827</v>
-      </c>
-      <c r="D28" t="str">
+      <c r="B29" t="str">
+        <v>34.30170506</v>
+      </c>
+      <c r="C29" t="str">
+        <v>134.0700955</v>
+      </c>
+      <c r="D29" t="str">
         <v>第27投票区</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E29" t="str">
         <v>林小学校体育館</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F29" t="str">
         <v>ハヤシショウガッコウタイイクカン</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G29" t="str">
         <v>香川県高松市林町1108-1</v>
       </c>
-      <c r="H28" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I28" t="str">
+      <c r="H29" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I29" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.301612%252C134.069787&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
+    <row r="30">
+      <c r="A30" t="str">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>34.273914848208705</v>
-      </c>
-      <c r="C29">
-        <v>134.06908803935812</v>
-      </c>
-      <c r="D29" t="str">
+      <c r="B30" t="str">
+        <v>34.27391485</v>
+      </c>
+      <c r="C30" t="str">
+        <v>134.069088</v>
+      </c>
+      <c r="D30" t="str">
         <v>第28投票区</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E30" t="str">
         <v>三渓小学校体育館</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F30" t="str">
         <v>サンケイショウガッコウタイイクカン</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G30" t="str">
         <v>香川県高松市三谷町2173-1</v>
       </c>
-      <c r="H29" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I29" t="str">
+      <c r="H30" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I30" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.27407%252C134.068506&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30">
+    <row r="31">
+      <c r="A31" t="str">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>34.29254233642294</v>
-      </c>
-      <c r="C30">
-        <v>134.05256222453465</v>
-      </c>
-      <c r="D30" t="str">
+      <c r="B31" t="str">
+        <v>34.29254234</v>
+      </c>
+      <c r="C31" t="str">
+        <v>134.0525622</v>
+      </c>
+      <c r="D31" t="str">
         <v>第29投票区</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E31" t="str">
         <v>多肥小学校体育館</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F31" t="str">
         <v>タヒショウガッコウタイイクカン</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <v>香川県高松市多肥上町902-2</v>
       </c>
-      <c r="H30" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I30" t="str">
+      <c r="H31" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I31" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D18&amp;ll%3D34.291913%252C134.052581&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31">
+    <row r="32">
+      <c r="A32" t="str">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>34.274266547433214</v>
-      </c>
-      <c r="C31">
-        <v>134.0471238587901</v>
-      </c>
-      <c r="D31" t="str">
+      <c r="B32" t="str">
+        <v>34.27426655</v>
+      </c>
+      <c r="C32" t="str">
+        <v>134.0471239</v>
+      </c>
+      <c r="D32" t="str">
         <v>第30投票区</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E32" t="str">
         <v>仏生山小学校体育館</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F32" t="str">
         <v>ブッショウザンショウガッコウタイイクカン</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G32" t="str">
         <v>香川県高松市仏生山町甲2461</v>
       </c>
-      <c r="H31" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I31" t="str">
+      <c r="H32" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I32" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.274732%252C134.047781&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32">
+    <row r="33">
+      <c r="A33" t="str">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>34.29084694326552</v>
-      </c>
-      <c r="C32">
-        <v>134.02389441468313</v>
-      </c>
-      <c r="D32" t="str">
+      <c r="B33" t="str">
+        <v>34.29084694</v>
+      </c>
+      <c r="C33" t="str">
+        <v>134.0238944</v>
+      </c>
+      <c r="D33" t="str">
         <v>第31投票区</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E33" t="str">
         <v>一宮小学校体育館</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F33" t="str">
         <v>イチノミヤショウガッコウタイイクカン</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G33" t="str">
         <v>香川県高松市一宮町672-1</v>
       </c>
-      <c r="H32" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I32" t="str">
+      <c r="H33" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I33" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.291104%252C134.024168&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33">
+    <row r="34">
+      <c r="A34" t="str">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>34.2798462171849</v>
-      </c>
-      <c r="C33">
-        <v>134.02242597631357</v>
-      </c>
-      <c r="D33" t="str">
+      <c r="B34" t="str">
+        <v>34.27984622</v>
+      </c>
+      <c r="C34" t="str">
+        <v>134.022426</v>
+      </c>
+      <c r="D34" t="str">
         <v>第32投票区</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E34" t="str">
         <v>らく楽寺井幼稚園</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F34" t="str">
         <v>ラクラクテライヨウチエン</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G34" t="str">
         <v>香川県高松市寺井町1369-4</v>
       </c>
-      <c r="H33" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I33" t="str">
+      <c r="H34" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I34" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.279858%252C134.022473&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000fd9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34">
+    <row r="35">
+      <c r="A35" t="str">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>34.26746143577152</v>
-      </c>
-      <c r="C34">
-        <v>134.00643241831926</v>
-      </c>
-      <c r="D34" t="str">
+      <c r="B35" t="str">
+        <v>34.26746144</v>
+      </c>
+      <c r="C35" t="str">
+        <v>134.0064324</v>
+      </c>
+      <c r="D35" t="str">
         <v>第33投票区</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E35" t="str">
         <v>川岡小学校体育館</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F35" t="str">
         <v>カワオカショウガッコウタイイクカン</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G35" t="str">
         <v>香川県高松市川部町1552</v>
       </c>
-      <c r="H34" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I34" t="str">
+      <c r="H35" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I35" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.26759%252C134.006993&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35">
+    <row r="36">
+      <c r="A36" t="str">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>34.28470171023693</v>
-      </c>
-      <c r="C35">
-        <v>134.00503603208676</v>
-      </c>
-      <c r="D35" t="str">
+      <c r="B36" t="str">
+        <v>34.28470171</v>
+      </c>
+      <c r="C36" t="str">
+        <v>134.005036</v>
+      </c>
+      <c r="D36" t="str">
         <v>第34投票区</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E36" t="str">
         <v>円座小学校体育館</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F36" t="str">
         <v>エンザショウガッコウタイイクカン</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G36" t="str">
         <v>香川県高松市円座町1630-2</v>
       </c>
-      <c r="H35" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I35" t="str">
+      <c r="H36" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I36" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.285043%252C134.00388&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36">
+    <row r="37">
+      <c r="A37" t="str">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>34.30042959667307</v>
-      </c>
-      <c r="C36">
-        <v>133.99385068947947</v>
-      </c>
-      <c r="D36" t="str">
+      <c r="B37" t="str">
+        <v>34.3004296</v>
+      </c>
+      <c r="C37" t="str">
+        <v>133.9938507</v>
+      </c>
+      <c r="D37" t="str">
         <v>第35投票区</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E37" t="str">
         <v>檀紙小学校体育館</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F37" t="str">
         <v>ダンシショウガッコウタイイクカン</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G37" t="str">
         <v>香川県高松市御廐町816</v>
       </c>
-      <c r="H36" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I36" t="str">
+      <c r="H37" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I37" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.300177%252C133.994422&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37">
+    <row r="38">
+      <c r="A38" t="str">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>34.328990762890314</v>
-      </c>
-      <c r="C37">
-        <v>134.00545690443403</v>
-      </c>
-      <c r="D37" t="str">
+      <c r="B38" t="str">
+        <v>34.32899076</v>
+      </c>
+      <c r="C38" t="str">
+        <v>134.0054569</v>
+      </c>
+      <c r="D38" t="str">
         <v>第36投票区</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E38" t="str">
         <v>弦打小学校体育館</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F38" t="str">
         <v>ツルウチショウガッコウタイイクカン</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G38" t="str">
         <v>香川県高松市鶴市町374-1</v>
       </c>
-      <c r="H37" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I37" t="str">
+      <c r="H38" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I38" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.328406%252C134.004553&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38">
+    <row r="39">
+      <c r="A39" t="str">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>34.32667094563094</v>
-      </c>
-      <c r="C38">
-        <v>133.988580737088</v>
-      </c>
-      <c r="D38" t="str">
+      <c r="B39" t="str">
+        <v>34.32667095</v>
+      </c>
+      <c r="C39" t="str">
+        <v>133.9885807</v>
+      </c>
+      <c r="D39" t="str">
         <v>第37投票区</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E39" t="str">
         <v>鬼無小学校体育館</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F39" t="str">
         <v>キナシショウガッコウタイイクカン</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G39" t="str">
         <v>香川県高松市鬼無町佐藤607-1</v>
       </c>
-      <c r="H38" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I38" t="str">
+      <c r="H39" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I39" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.326826%252C133.990697&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39">
+    <row r="40">
+      <c r="A40" t="str">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>34.345217911912144</v>
-      </c>
-      <c r="C39">
-        <v>133.99855136077605</v>
-      </c>
-      <c r="D39" t="str">
+      <c r="B40" t="str">
+        <v>34.34521791</v>
+      </c>
+      <c r="C40" t="str">
+        <v>133.9985514</v>
+      </c>
+      <c r="D40" t="str">
         <v>第38投票区</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E40" t="str">
         <v>香西小学校体育館</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F40" t="str">
         <v>コウザイショウガッコウタイイクカン</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G40" t="str">
         <v>香川県高松市香西南町703-1</v>
       </c>
-      <c r="H39" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I39" t="str">
+      <c r="H40" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I40" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.344806%252C133.998259&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40">
+    <row r="41">
+      <c r="A41" t="str">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>34.35806715072141</v>
-      </c>
-      <c r="C40">
-        <v>133.96869942097356</v>
-      </c>
-      <c r="D40" t="str">
+      <c r="B41" t="str">
+        <v>34.35806715</v>
+      </c>
+      <c r="C41" t="str">
+        <v>133.9686994</v>
+      </c>
+      <c r="D41" t="str">
         <v>第39投票区</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E41" t="str">
         <v>下笠居小学校体育館</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F41" t="str">
         <v>シモカサイショウガッコウタイイクカン</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G41" t="str">
         <v>香川県高松市生島町345</v>
       </c>
-      <c r="H40" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I40" t="str">
+      <c r="H41" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I41" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.358386%252C133.967994&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41">
+    <row r="42">
+      <c r="A42" t="str">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>34.39209710817687</v>
-      </c>
-      <c r="C41">
-        <v>134.0517055618272</v>
-      </c>
-      <c r="D41" t="str">
+      <c r="B42" t="str">
+        <v>34.39209711</v>
+      </c>
+      <c r="C42" t="str">
+        <v>134.0517056</v>
+      </c>
+      <c r="D42" t="str">
         <v>第40投票区</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E42" t="str">
         <v>女木コミュニティセンター</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F42" t="str">
         <v>メギコミュニティセンター</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G42" t="str">
         <v>香川県高松市女木町203-1</v>
       </c>
-      <c r="H41" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I41" t="str">
+      <c r="H42" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I42" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391681%252C134.052529&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42">
+    <row r="43">
+      <c r="A43" t="str">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>34.42245501305557</v>
-      </c>
-      <c r="C42">
-        <v>134.0541422884407</v>
-      </c>
-      <c r="D42" t="str">
+      <c r="B43" t="str">
+        <v>34.42245501</v>
+      </c>
+      <c r="C43" t="str">
+        <v>134.0541423</v>
+      </c>
+      <c r="D43" t="str">
         <v>第41投票区</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E43" t="str">
         <v>男木コミュニティセンター</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F43" t="str">
         <v>オギコミュニティセンター</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G43" t="str">
         <v>香川県高松市男木町1988</v>
       </c>
-      <c r="H42" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I42" t="str">
+      <c r="H43" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I43" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.421031%252C134.0555&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43">
+    <row r="44">
+      <c r="A44" t="str">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>34.27577882042698</v>
-      </c>
-      <c r="C43">
-        <v>134.0893462675271</v>
-      </c>
-      <c r="D43" t="str">
+      <c r="B44" t="str">
+        <v>34.27577882</v>
+      </c>
+      <c r="C44" t="str">
+        <v>134.0893463</v>
+      </c>
+      <c r="D44" t="str">
         <v>第42投票区</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E44" t="str">
         <v>川島小学校体育館</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F44" t="str">
         <v>カワシマショウガッコウタイイクカン</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G44" t="str">
         <v>香川県高松市川島東町864-1</v>
       </c>
-      <c r="H43" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I43" t="str">
+      <c r="H44" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I44" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.275668%252C134.08907&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44">
+    <row r="45">
+      <c r="A45" t="str">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>34.2745612822727</v>
-      </c>
-      <c r="C44">
-        <v>134.1028663191189</v>
-      </c>
-      <c r="D44" t="str">
+      <c r="B45" t="str">
+        <v>34.27456128</v>
+      </c>
+      <c r="C45" t="str">
+        <v>134.1028663</v>
+      </c>
+      <c r="D45" t="str">
         <v>第43投票区</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E45" t="str">
         <v>十河小学校体育館</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F45" t="str">
         <v>ソゴウショウガッコウタイイクカン</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G45" t="str">
         <v>香川県高松市十川西町366-5</v>
       </c>
-      <c r="H44" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I44" t="str">
+      <c r="H45" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I45" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.274712%252C134.102236&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45">
+    <row r="46">
+      <c r="A46" t="str">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>34.23911321627226</v>
-      </c>
-      <c r="C45">
-        <v>134.09757445270856</v>
-      </c>
-      <c r="D45" t="str">
+      <c r="B46" t="str">
+        <v>34.23911322</v>
+      </c>
+      <c r="C46" t="str">
+        <v>134.0975745</v>
+      </c>
+      <c r="D46" t="str">
         <v>第44投票区</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E46" t="str">
         <v>東植田小学校体育館</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F46" t="str">
         <v>ヒガシウエタショウガッコウタイイクカン</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G46" t="str">
         <v>香川県高松市東植田町2008</v>
       </c>
-      <c r="H45" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I45" t="str">
+      <c r="H46" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I46" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.238958%252C134.097899&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46">
+    <row r="47">
+      <c r="A47" t="str">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>34.193702120066035</v>
-      </c>
-      <c r="C46">
-        <v>134.09808161188482</v>
-      </c>
-      <c r="D46" t="str">
+      <c r="B47" t="str">
+        <v>34.19370212</v>
+      </c>
+      <c r="C47" t="str">
+        <v>134.0980816</v>
+      </c>
+      <c r="D47" t="str">
         <v>第45投票区</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E47" t="str">
         <v>東植田小学校菅沢分校体育館</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F47" t="str">
         <v>ヒガシウエタショウガッコウスゲザワブンコウタイイクカン</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G47" t="str">
         <v>香川県高松市菅沢町339</v>
       </c>
-      <c r="H46" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I46" t="str">
+      <c r="H47" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I47" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.193567%252C134.098236&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47">
+    <row r="48">
+      <c r="A48" t="str">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>34.23940326107811</v>
-      </c>
-      <c r="C47">
-        <v>134.0789694811465</v>
-      </c>
-      <c r="D47" t="str">
+      <c r="B48" t="str">
+        <v>34.23940326</v>
+      </c>
+      <c r="C48" t="str">
+        <v>134.0789695</v>
+      </c>
+      <c r="D48" t="str">
         <v>第46投票区</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E48" t="str">
         <v>植田小学校体育館</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F48" t="str">
         <v>ウエタショウガッコウタイイクカン</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G48" t="str">
         <v>香川県高松市西植田町2337</v>
       </c>
-      <c r="H47" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I47" t="str">
+      <c r="H48" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I48" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.239421%252C134.077851&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48">
+    <row r="49">
+      <c r="A49" t="str">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>34.32756977279172</v>
-      </c>
-      <c r="C48">
-        <v>134.09900252149475</v>
-      </c>
-      <c r="D48" t="str">
+      <c r="B49" t="str">
+        <v>34.32756977</v>
+      </c>
+      <c r="C49" t="str">
+        <v>134.0990025</v>
+      </c>
+      <c r="D49" t="str">
         <v>第47投票区</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E49" t="str">
         <v>古高松南小学校体育館</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F49" t="str">
         <v>フルタカマツミナミショウガッコウタイイクカン</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G49" t="str">
         <v>香川県高松市新田町甲2605</v>
       </c>
-      <c r="H48" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I48" t="str">
+      <c r="H49" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I49" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.326985%252C134.098855&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49">
+    <row r="50">
+      <c r="A50" t="str">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>34.35097209964826</v>
-      </c>
-      <c r="C49">
-        <v>134.08998515574802</v>
-      </c>
-      <c r="D49" t="str">
+      <c r="B50" t="str">
+        <v>34.3509721</v>
+      </c>
+      <c r="C50" t="str">
+        <v>134.0899852</v>
+      </c>
+      <c r="D50" t="str">
         <v>第48投票区</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E50" t="str">
         <v>屋島西小学校体育館</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F50" t="str">
         <v>ヤシマニシショウガッコウタイイクカン</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G50" t="str">
         <v>香川県高松市屋島西町2469</v>
       </c>
-      <c r="H49" t="str">
-        <v>香川県第１区</v>
-      </c>
-      <c r="I49" t="str">
+      <c r="H50" t="str">
+        <v>香川県第１区</v>
+      </c>
+      <c r="I50" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.351725%252C134.090476&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50">
+    <row r="51">
+      <c r="A51" t="str">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>34.19621134311019</v>
-      </c>
-      <c r="C50">
-        <v>134.041518104158</v>
-      </c>
-      <c r="D50" t="str">
+      <c r="B51" t="str">
+        <v>34.19621134</v>
+      </c>
+      <c r="C51" t="str">
+        <v>134.0415181</v>
+      </c>
+      <c r="D51" t="str">
         <v>第49投票区</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E51" t="str">
         <v>塩江コミュニティセンター</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F51" t="str">
         <v>シオノエコミュニティセンター</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G51" t="str">
         <v>香川県高松市塩江町安原下第2号1645</v>
-      </c>
-      <c r="H50" t="str">
-        <v>香川県第２区</v>
-      </c>
-      <c r="I50" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.196482%252C134.042363&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;sa%3D1&amp;vlf%3D-1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>34.156126299060745</v>
-      </c>
-      <c r="C51">
-        <v>134.02457272750326</v>
-      </c>
-      <c r="D51" t="str">
-        <v>第50投票区</v>
-      </c>
-      <c r="E51" t="str">
-        <v>旧安原小学校戸石分校</v>
-      </c>
-      <c r="F51" t="str">
-        <v>キュウヤスハラショウガッコウトイシブンコウ</v>
-      </c>
-      <c r="G51" t="str">
-        <v>香川県高松市塩江町安原下第2号857</v>
       </c>
       <c r="H51" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I51" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.154981%252C134.025195&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.196482%252C134.042363&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;sa%3D1&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>34.170083156828326</v>
-      </c>
-      <c r="C52">
-        <v>134.08332020100045</v>
+      <c r="A52" t="str">
+        <v>50</v>
+      </c>
+      <c r="B52" t="str">
+        <v>34.1561263</v>
+      </c>
+      <c r="C52" t="str">
+        <v>134.0245727</v>
       </c>
       <c r="D52" t="str">
-        <v>第51投票区</v>
+        <v>第50投票区</v>
       </c>
       <c r="E52" t="str">
-        <v>旧塩江小学校ランチルーム</v>
+        <v>旧安原小学校戸石分校</v>
       </c>
       <c r="F52" t="str">
-        <v>キュウシオノエショウガッコウランチルーム</v>
+        <v>キュウヤスハラショウガッコウトイシブンコウ</v>
       </c>
       <c r="G52" t="str">
-        <v>香川県高松市塩江町安原上東365</v>
+        <v>香川県高松市塩江町安原下第2号857</v>
       </c>
       <c r="H52" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I52" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.171672%252C134.082657&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.154981%252C134.025195&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>34.15250506549383</v>
-      </c>
-      <c r="C53">
-        <v>134.076537944773</v>
+      <c r="A53" t="str">
+        <v>51</v>
+      </c>
+      <c r="B53" t="str">
+        <v>34.17008316</v>
+      </c>
+      <c r="C53" t="str">
+        <v>134.0833202</v>
       </c>
       <c r="D53" t="str">
-        <v>第52投票区</v>
+        <v>第51投票区</v>
       </c>
       <c r="E53" t="str">
-        <v>旧上西小学校職員室</v>
+        <v>旧塩江小学校ランチルーム</v>
       </c>
       <c r="F53" t="str">
-        <v>キュウカミニシショウガッコウショクインシツ</v>
+        <v>キュウシオノエショウガッコウランチルーム</v>
       </c>
       <c r="G53" t="str">
-        <v>香川県高松市塩江町上西乙461</v>
+        <v>香川県高松市塩江町安原上東365</v>
       </c>
       <c r="H53" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I53" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.151888%252C134.076605&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.171672%252C134.082657&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>34.12613671569673</v>
-      </c>
-      <c r="C54">
-        <v>134.07382096329428</v>
+      <c r="A54" t="str">
+        <v>52</v>
+      </c>
+      <c r="B54" t="str">
+        <v>34.15250507</v>
+      </c>
+      <c r="C54" t="str">
+        <v>134.0765379</v>
       </c>
       <c r="D54" t="str">
-        <v>第53投票区</v>
+        <v>第52投票区</v>
       </c>
       <c r="E54" t="str">
-        <v>西山ふれあいセンター</v>
+        <v>旧上西小学校職員室</v>
       </c>
       <c r="F54" t="str">
-        <v>ニシヤマフレアイセンター</v>
+        <v>キュウカミニシショウガッコウショクインシツ</v>
       </c>
       <c r="G54" t="str">
-        <v>香川県高松市塩江町上西甲947-3</v>
+        <v>香川県高松市塩江町上西乙461</v>
       </c>
       <c r="H54" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I54" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.124467%252C134.073137&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.151888%252C134.076605&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>34.24030943468286</v>
-      </c>
-      <c r="C55">
-        <v>134.01899159755146</v>
+      <c r="A55" t="str">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <v>34.12613672</v>
+      </c>
+      <c r="C55" t="str">
+        <v>134.073821</v>
       </c>
       <c r="D55" t="str">
-        <v>第55投票区</v>
+        <v>第53投票区</v>
       </c>
       <c r="E55" t="str">
-        <v>香南町由佐農村環境改善センター</v>
+        <v>西山ふれあいセンター</v>
       </c>
       <c r="F55" t="str">
-        <v>コウナンチョウユサノウソンカンキョウカイゼンセンター</v>
+        <v>ニシヤマフレアイセンター</v>
       </c>
       <c r="G55" t="str">
-        <v>香川県高松市香南町由佐357-2</v>
+        <v>香川県高松市塩江町上西甲947-3</v>
       </c>
       <c r="H55" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I55" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.240305%252C134.018946&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.124467%252C134.073137&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>34.24521420502218</v>
-      </c>
-      <c r="C56">
-        <v>134.0003609447739</v>
+      <c r="A56" t="str">
+        <v>55</v>
+      </c>
+      <c r="B56" t="str">
+        <v>34.24030943</v>
+      </c>
+      <c r="C56" t="str">
+        <v>134.0189916</v>
       </c>
       <c r="D56" t="str">
-        <v>第56投票区</v>
+        <v>第55投票区</v>
       </c>
       <c r="E56" t="str">
-        <v>香南町池西農村環境改善センター</v>
+        <v>香南町由佐農村環境改善センター</v>
       </c>
       <c r="F56" t="str">
-        <v>コウナンチョウイケニシノウソンカンキョウカイゼンセンター</v>
+        <v>コウナンチョウユサノウソンカンキョウカイゼンセンター</v>
       </c>
       <c r="G56" t="str">
-        <v>香川県高松市香南町池内522-1</v>
+        <v>香川県高松市香南町由佐357-2</v>
       </c>
       <c r="H56" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I56" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.245059%252C134.000428&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.240305%252C134.018946&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>34.26693233443602</v>
-      </c>
-      <c r="C57">
-        <v>134.02698170073268</v>
+      <c r="A57" t="str">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>34.24521421</v>
+      </c>
+      <c r="C57" t="str">
+        <v>134.0003609</v>
       </c>
       <c r="D57" t="str">
-        <v>第57投票区</v>
+        <v>第56投票区</v>
       </c>
       <c r="E57" t="str">
-        <v>大野小学校南校舎（教育相談室）</v>
+        <v>香南町池西農村環境改善センター</v>
       </c>
       <c r="F57" t="str">
-        <v>オオノショウガッコウミナミコウシャ（キョウイクソウダンシツ）</v>
+        <v>コウナンチョウイケニシノウソンカンキョウカイゼンセンター</v>
       </c>
       <c r="G57" t="str">
-        <v>香川県高松市香川町大野1045-1</v>
+        <v>香川県高松市香南町池内522-1</v>
       </c>
       <c r="H57" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I57" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.267021%252C134.026228&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.245059%252C134.000428&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>34.25935799622627</v>
-      </c>
-      <c r="C58">
-        <v>134.04082116434813</v>
+      <c r="A58" t="str">
+        <v>57</v>
+      </c>
+      <c r="B58" t="str">
+        <v>34.26693233</v>
+      </c>
+      <c r="C58" t="str">
+        <v>134.0269817</v>
       </c>
       <c r="D58" t="str">
-        <v>第58投票区</v>
+        <v>第57投票区</v>
       </c>
       <c r="E58" t="str">
-        <v>浅野小学校体育館</v>
+        <v>大野小学校南校舎（教育相談室）</v>
       </c>
       <c r="F58" t="str">
-        <v>アサノショウガッコウタイイクカン</v>
+        <v>オオノショウガッコウミナミコウシャ（キョウイクソウダンシツ）</v>
       </c>
       <c r="G58" t="str">
-        <v>香川県高松市香川町浅野3088</v>
+        <v>香川県高松市香川町大野1045-1</v>
       </c>
       <c r="H58" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I58" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.25899%252C134.041253&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.267021%252C134.026228&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>34.24146398952223</v>
-      </c>
-      <c r="C59">
-        <v>134.03442681845326</v>
+      <c r="A59" t="str">
+        <v>58</v>
+      </c>
+      <c r="B59" t="str">
+        <v>34.259358</v>
+      </c>
+      <c r="C59" t="str">
+        <v>134.0408212</v>
       </c>
       <c r="D59" t="str">
-        <v>第59投票区</v>
+        <v>第58投票区</v>
       </c>
       <c r="E59" t="str">
-        <v>川東コミュニティセンター</v>
+        <v>浅野小学校体育館</v>
       </c>
       <c r="F59" t="str">
-        <v>カワヒガシコミュニティセンター</v>
+        <v>アサノショウガッコウタイイクカン</v>
       </c>
       <c r="G59" t="str">
-        <v>香川県高松市香川町川東上1865-13</v>
+        <v>香川県高松市香川町浅野3088</v>
       </c>
       <c r="H59" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I59" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.241158%252C134.034113&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.25899%252C134.041253&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>34.20446741047704</v>
-      </c>
-      <c r="C60">
-        <v>134.06169395337304</v>
+      <c r="A60" t="str">
+        <v>59</v>
+      </c>
+      <c r="B60" t="str">
+        <v>34.24146399</v>
+      </c>
+      <c r="C60" t="str">
+        <v>134.0344268</v>
       </c>
       <c r="D60" t="str">
-        <v>第60投票区</v>
+        <v>第59投票区</v>
       </c>
       <c r="E60" t="str">
-        <v>東谷コミュニティセンター</v>
+        <v>川東コミュニティセンター</v>
       </c>
       <c r="F60" t="str">
-        <v>ヒガシタニコミュニティセンター</v>
+        <v>カワヒガシコミュニティセンター</v>
       </c>
       <c r="G60" t="str">
-        <v>香川県高松市香川町東谷873-3</v>
+        <v>香川県高松市香川町川東上1865-13</v>
       </c>
       <c r="H60" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I60" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.204636%252C134.061702&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.241158%252C134.034113&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>34.21202672350552</v>
-      </c>
-      <c r="C61">
-        <v>134.03140088591272</v>
+      <c r="A61" t="str">
+        <v>60</v>
+      </c>
+      <c r="B61" t="str">
+        <v>34.20446741</v>
+      </c>
+      <c r="C61" t="str">
+        <v>134.061694</v>
       </c>
       <c r="D61" t="str">
-        <v>第61投票区</v>
+        <v>第60投票区</v>
       </c>
       <c r="E61" t="str">
-        <v>香川町多目的研修集会施設</v>
+        <v>東谷コミュニティセンター</v>
       </c>
       <c r="F61" t="str">
-        <v>カガワチョウタモクテキケンシュウシュウカイシセツ</v>
+        <v>ヒガシタニコミュニティセンター</v>
       </c>
       <c r="G61" t="str">
-        <v>香川県高松市香川町安原下第3号194-1</v>
+        <v>香川県高松市香川町東谷873-3</v>
       </c>
       <c r="H61" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I61" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.211938%252C134.031248&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.204636%252C134.061702&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>34.30614944970483</v>
-      </c>
-      <c r="C62">
-        <v>133.96384447256042</v>
+      <c r="A62" t="str">
+        <v>61</v>
+      </c>
+      <c r="B62" t="str">
+        <v>34.21202672</v>
+      </c>
+      <c r="C62" t="str">
+        <v>134.0314009</v>
       </c>
       <c r="D62" t="str">
-        <v>第62投票区</v>
+        <v>第61投票区</v>
       </c>
       <c r="E62" t="str">
-        <v>国分寺北部小学校体育館</v>
+        <v>香川町多目的研修集会施設</v>
       </c>
       <c r="F62" t="str">
-        <v>コクブンジホクブショウガッコウタイイクカン</v>
+        <v>カガワチョウタモクテキケンシュウシュウカイシセツ</v>
       </c>
       <c r="G62" t="str">
-        <v>香川県高松市国分寺町新居1880</v>
+        <v>香川県高松市香川町安原下第3号194-1</v>
       </c>
       <c r="H62" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I62" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306114%252C133.962785&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.211938%252C134.031248&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>34.297339078167894</v>
-      </c>
-      <c r="C63">
-        <v>133.96489918419928</v>
+      <c r="A63" t="str">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <v>34.30614945</v>
+      </c>
+      <c r="C63" t="str">
+        <v>133.9638445</v>
       </c>
       <c r="D63" t="str">
-        <v>第63投票区</v>
+        <v>第62投票区</v>
       </c>
       <c r="E63" t="str">
-        <v>国分寺中学校体育館</v>
+        <v>国分寺北部小学校体育館</v>
       </c>
       <c r="F63" t="str">
-        <v>コクブンジチュウガッコウタイイクカン</v>
+        <v>コクブンジホクブショウガッコウタイイクカン</v>
       </c>
       <c r="G63" t="str">
-        <v>香川県高松市国分寺町新居1131-1</v>
+        <v>香川県高松市国分寺町新居1880</v>
       </c>
       <c r="H63" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I63" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.297636%252C133.963947&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306114%252C133.962785&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>34.28372508338839</v>
-      </c>
-      <c r="C64">
-        <v>133.96099873247357</v>
+      <c r="A64" t="str">
+        <v>63</v>
+      </c>
+      <c r="B64" t="str">
+        <v>34.29733908</v>
+      </c>
+      <c r="C64" t="str">
+        <v>133.9648992</v>
       </c>
       <c r="D64" t="str">
-        <v>第64投票区</v>
+        <v>第63投票区</v>
       </c>
       <c r="E64" t="str">
-        <v>国分寺南部小学校体育館</v>
+        <v>国分寺中学校体育館</v>
       </c>
       <c r="F64" t="str">
-        <v>コクブンジナンブショウガッコウタイイクカン</v>
+        <v>コクブンジチュウガッコウタイイクカン</v>
       </c>
       <c r="G64" t="str">
-        <v>香川県高松市国分寺町福家甲3005</v>
+        <v>香川県高松市国分寺町新居1131-1</v>
       </c>
       <c r="H64" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I64" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.28396%252C133.961275&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.297636%252C133.963947&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>34.384380312932194</v>
-      </c>
-      <c r="C65">
-        <v>134.12660541105458</v>
+      <c r="A65" t="str">
+        <v>64</v>
+      </c>
+      <c r="B65" t="str">
+        <v>34.28372508</v>
+      </c>
+      <c r="C65" t="str">
+        <v>133.9609987</v>
       </c>
       <c r="D65" t="str">
-        <v>第65投票区</v>
+        <v>第64投票区</v>
       </c>
       <c r="E65" t="str">
-        <v>庵治支所</v>
+        <v>国分寺南部小学校体育館</v>
       </c>
       <c r="F65" t="str">
-        <v>アジシショ</v>
+        <v>コクブンジナンブショウガッコウタイイクカン</v>
       </c>
       <c r="G65" t="str">
-        <v>香川県高松市庵治町6393-5</v>
+        <v>香川県高松市国分寺町福家甲3005</v>
       </c>
       <c r="H65" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I65" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.384035%252C134.126592&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D10-2-00006c</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.28396%252C133.961275&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>34.391467573295</v>
-      </c>
-      <c r="C66">
-        <v>134.1528431656763</v>
+      <c r="A66" t="str">
+        <v>65</v>
+      </c>
+      <c r="B66" t="str">
+        <v>34.38438031</v>
+      </c>
+      <c r="C66" t="str">
+        <v>134.1266054</v>
       </c>
       <c r="D66" t="str">
-        <v>第66投票区</v>
+        <v>第65投票区</v>
       </c>
       <c r="E66" t="str">
-        <v>鎌野自治会館</v>
+        <v>庵治支所</v>
       </c>
       <c r="F66" t="str">
-        <v>カマノジチカイカン</v>
+        <v>アジシショ</v>
       </c>
       <c r="G66" t="str">
-        <v>香川県高松市庵治町4510-12</v>
+        <v>香川県高松市庵治町6393-5</v>
       </c>
       <c r="H66" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I66" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391472%252C134.152642&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.384035%252C134.126592&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D10-2-00006c</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>34.364858919372935</v>
-      </c>
-      <c r="C67">
-        <v>134.15661397189854</v>
+      <c r="A67" t="str">
+        <v>66</v>
+      </c>
+      <c r="B67" t="str">
+        <v>34.39146757</v>
+      </c>
+      <c r="C67" t="str">
+        <v>134.1528432</v>
       </c>
       <c r="D67" t="str">
-        <v>第67投票区</v>
+        <v>第66投票区</v>
       </c>
       <c r="E67" t="str">
-        <v>高尻地区自治連合会会館</v>
+        <v>鎌野自治会館</v>
       </c>
       <c r="F67" t="str">
-        <v>コウジリチクジチレンゴウカイカイカン</v>
+        <v>カマノジチカイカン</v>
       </c>
       <c r="G67" t="str">
-        <v>香川県高松市庵治町3015-3</v>
+        <v>香川県高松市庵治町4510-12</v>
       </c>
       <c r="H67" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I67" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.365439%252C134.155871&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391472%252C134.152642&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>34.40961074741702</v>
-      </c>
-      <c r="C68">
-        <v>134.10672270437573</v>
+      <c r="A68" t="str">
+        <v>67</v>
+      </c>
+      <c r="B68" t="str">
+        <v>34.36485892</v>
+      </c>
+      <c r="C68" t="str">
+        <v>134.156614</v>
       </c>
       <c r="D68" t="str">
-        <v>第68投票区</v>
+        <v>第67投票区</v>
       </c>
       <c r="E68" t="str">
-        <v>大島青松園大島会館</v>
+        <v>高尻地区自治連合会会館</v>
       </c>
       <c r="F68" t="str">
-        <v>オオシマセイショウエンオオシマカイカン</v>
+        <v>コウジリチクジチレンゴウカイカイカン</v>
       </c>
       <c r="G68" t="str">
-        <v>香川県高松市庵治町6034-1</v>
+        <v>香川県高松市庵治町3015-3</v>
       </c>
       <c r="H68" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I68" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.408761%252C134.106256&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.365439%252C134.155871&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>34.3339267602656</v>
-      </c>
-      <c r="C69">
-        <v>134.15208885019035</v>
+      <c r="A69" t="str">
+        <v>68</v>
+      </c>
+      <c r="B69" t="str">
+        <v>34.40961075</v>
+      </c>
+      <c r="C69" t="str">
+        <v>134.1067227</v>
       </c>
       <c r="D69" t="str">
-        <v>第69投票区</v>
+        <v>第68投票区</v>
       </c>
       <c r="E69" t="str">
-        <v>牟礼南小学校体育館</v>
+        <v>大島青松園大島会館</v>
       </c>
       <c r="F69" t="str">
-        <v>ムレミナミショウガッコウタイイクカン</v>
+        <v>オオシマセイショウエンオオシマカイカン</v>
       </c>
       <c r="G69" t="str">
-        <v>香川県高松市牟礼町大町1115-1</v>
+        <v>香川県高松市庵治町6034-1</v>
       </c>
       <c r="H69" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I69" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.333754%252C134.152805&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.408761%252C134.106256&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>34.336138570372</v>
-      </c>
-      <c r="C70">
-        <v>134.14268537070802</v>
+      <c r="A70" t="str">
+        <v>69</v>
+      </c>
+      <c r="B70" t="str">
+        <v>34.33392676</v>
+      </c>
+      <c r="C70" t="str">
+        <v>134.1520889</v>
       </c>
       <c r="D70" t="str">
-        <v>第70投票区</v>
+        <v>第69投票区</v>
       </c>
       <c r="E70" t="str">
-        <v>大町コミュニティセンター</v>
+        <v>牟礼南小学校体育館</v>
       </c>
       <c r="F70" t="str">
-        <v>オオマチコミュニティセンター</v>
+        <v>ムレミナミショウガッコウタイイクカン</v>
       </c>
       <c r="G70" t="str">
-        <v>香川県高松市牟礼町大町1463-2</v>
+        <v>香川県高松市牟礼町大町1115-1</v>
       </c>
       <c r="H70" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I70" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.336143%252C134.141701&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D60-2-000001</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.333754%252C134.152805&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>34.35111416350888</v>
-      </c>
-      <c r="C71">
-        <v>134.1255468257222</v>
+      <c r="A71" t="str">
+        <v>70</v>
+      </c>
+      <c r="B71" t="str">
+        <v>34.33613857</v>
+      </c>
+      <c r="C71" t="str">
+        <v>134.1426854</v>
       </c>
       <c r="D71" t="str">
-        <v>第71投票区</v>
+        <v>第70投票区</v>
       </c>
       <c r="E71" t="str">
-        <v>牟礼北小学校体育館</v>
+        <v>大町コミュニティセンター</v>
       </c>
       <c r="F71" t="str">
-        <v>ムレキタショウガッコウタイイクカン</v>
+        <v>オオマチコミュニティセンター</v>
       </c>
       <c r="G71" t="str">
-        <v>香川県高松市牟礼町牟礼2900-1</v>
+        <v>香川県高松市牟礼町大町1463-2</v>
       </c>
       <c r="H71" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I71" t="str">
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.336143%252C134.141701&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D60-2-000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>71</v>
+      </c>
+      <c r="B72" t="str">
+        <v>34.35111416</v>
+      </c>
+      <c r="C72" t="str">
+        <v>134.1255468</v>
+      </c>
+      <c r="D72" t="str">
+        <v>第71投票区</v>
+      </c>
+      <c r="E72" t="str">
+        <v>牟礼北小学校体育館</v>
+      </c>
+      <c r="F72" t="str">
+        <v>ムレキタショウガッコウタイイクカン</v>
+      </c>
+      <c r="G72" t="str">
+        <v>香川県高松市牟礼町牟礼2900-1</v>
+      </c>
+      <c r="H72" t="str">
+        <v>香川県第２区</v>
+      </c>
+      <c r="I72" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.350782%252C134.125807&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f2f</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I72"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/polling_place_list/data.xlsx
+++ b/data/polling_place_list/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -726,19 +726,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>34.34125953</v>
+        <v>34.34088747</v>
       </c>
       <c r="C12" t="str">
-        <v>134.0568435</v>
+        <v>134.056873</v>
       </c>
       <c r="D12" t="str">
         <v>第11投票区</v>
       </c>
       <c r="E12" t="str">
-        <v>築地コミュニティセンター</v>
+        <v>旧築地小学校体育館</v>
       </c>
       <c r="F12" t="str">
-        <v>ツキジコミュニティセンター</v>
+        <v>キュウツキジショウガッコウタイイクカン</v>
       </c>
       <c r="G12" t="str">
         <v>香川県高松市築地町14-1</v>
@@ -746,1750 +746,1724 @@
       <c r="H12" t="str">
         <v>香川県第１区</v>
       </c>
+      <c r="I12" t="str">
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.341481%252C134.05716&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3b</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>34.34088747</v>
+        <v>34.34378062</v>
       </c>
       <c r="C13" t="str">
-        <v>134.056873</v>
+        <v>134.0558113</v>
       </c>
       <c r="D13" t="str">
-        <v>第11投票区</v>
+        <v>第12投票区</v>
       </c>
       <c r="E13" t="str">
-        <v>旧築地小学校体育館</v>
+        <v>旧新塩屋町小学校体育館</v>
       </c>
       <c r="F13" t="str">
-        <v>キュウツキジショウガッコウタイイクカン</v>
+        <v>キュウシンシオヤマチショウガッコウタイイクカン</v>
       </c>
       <c r="G13" t="str">
-        <v>香川県高松市築地町14-1</v>
+        <v>香川県高松市末広町5</v>
       </c>
       <c r="H13" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I13" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.341481%252C134.05716&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3b</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.344841%252C134.056011&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f1b</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>34.34378062</v>
+        <v>34.31565134</v>
       </c>
       <c r="C14" t="str">
-        <v>134.0558113</v>
+        <v>134.0260385</v>
       </c>
       <c r="D14" t="str">
-        <v>第12投票区</v>
+        <v>第13投票区</v>
       </c>
       <c r="E14" t="str">
-        <v>旧新塩屋町小学校体育館</v>
+        <v>旧鶴尾中学校体育館</v>
       </c>
       <c r="F14" t="str">
-        <v>キュウシンシオヤマチショウガッコウタイイクカン</v>
+        <v>キュウツルオチュウガッコウタイイクカン</v>
       </c>
       <c r="G14" t="str">
-        <v>香川県高松市末広町5</v>
+        <v>香川県高松市松並町639-1</v>
       </c>
       <c r="H14" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I14" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.344841%252C134.056011&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f1b</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.315545%252C134.027039&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f1a</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>34.31565134</v>
+        <v>34.31545085</v>
       </c>
       <c r="C15" t="str">
-        <v>134.0260385</v>
+        <v>134.0281273</v>
       </c>
       <c r="D15" t="str">
-        <v>第13投票区</v>
+        <v>第14投票区</v>
       </c>
       <c r="E15" t="str">
-        <v>旧鶴尾中学校体育館</v>
+        <v>鶴尾小学校体育館</v>
       </c>
       <c r="F15" t="str">
-        <v>キュウツルオチュウガッコウタイイクカン</v>
+        <v>ツルオショウガッコウタイイクカン</v>
       </c>
       <c r="G15" t="str">
-        <v>香川県高松市松並町639-1</v>
+        <v>香川県高松市松並町636-1</v>
       </c>
       <c r="H15" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I15" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.315545%252C134.027039&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f1a</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.315761%252C134.028366&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>34.31545085</v>
+        <v>34.30583235</v>
       </c>
       <c r="C16" t="str">
-        <v>134.0281273</v>
+        <v>134.0435207</v>
       </c>
       <c r="D16" t="str">
-        <v>第14投票区</v>
+        <v>第15投票区</v>
       </c>
       <c r="E16" t="str">
-        <v>鶴尾小学校体育館</v>
+        <v>太田南小学校体育館</v>
       </c>
       <c r="F16" t="str">
-        <v>ツルオショウガッコウタイイクカン</v>
+        <v>オオタミナミショウガッコウタイイクカン</v>
       </c>
       <c r="G16" t="str">
-        <v>香川県高松市松並町636-1</v>
+        <v>香川県高松市太田下町1823-1</v>
       </c>
       <c r="H16" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I16" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.315761%252C134.028366&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.305726%252C134.04443&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>34.30583235</v>
+        <v>34.31220008</v>
       </c>
       <c r="C17" t="str">
-        <v>134.0435207</v>
+        <v>134.0523587</v>
       </c>
       <c r="D17" t="str">
-        <v>第15投票区</v>
+        <v>第16投票区</v>
       </c>
       <c r="E17" t="str">
-        <v>太田南小学校体育館</v>
+        <v>太田小学校体育館</v>
       </c>
       <c r="F17" t="str">
-        <v>オオタミナミショウガッコウタイイクカン</v>
+        <v>オオタショウガッコウタイイクカン</v>
       </c>
       <c r="G17" t="str">
-        <v>香川県高松市太田下町1823-1</v>
+        <v>香川県高松市伏石町845-1</v>
       </c>
       <c r="H17" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I17" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.305726%252C134.04443&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.312045%252C134.052128&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>34.31220008</v>
+        <v>34.31149008</v>
       </c>
       <c r="C18" t="str">
-        <v>134.0523587</v>
+        <v>134.0627723</v>
       </c>
       <c r="D18" t="str">
-        <v>第16投票区</v>
+        <v>第17投票区</v>
       </c>
       <c r="E18" t="str">
-        <v>太田小学校体育館</v>
+        <v>中央小学校体育館</v>
       </c>
       <c r="F18" t="str">
-        <v>オオタショウガッコウタイイクカン</v>
+        <v>チュウオウショウガッコウタイイクカン</v>
       </c>
       <c r="G18" t="str">
-        <v>香川県高松市伏石町845-1</v>
+        <v>香川県高松市松縄町1138</v>
       </c>
       <c r="H18" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I18" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.312045%252C134.052128&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.31188%252C134.062834&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>34.31149008</v>
+        <v>34.3206815</v>
       </c>
       <c r="C19" t="str">
-        <v>134.0627723</v>
+        <v>134.0740125</v>
       </c>
       <c r="D19" t="str">
-        <v>第17投票区</v>
+        <v>第18投票区</v>
       </c>
       <c r="E19" t="str">
-        <v>中央小学校体育館</v>
+        <v>木太南小学校体育館</v>
       </c>
       <c r="F19" t="str">
-        <v>チュウオウショウガッコウタイイクカン</v>
+        <v>キタミナミショウガッコウタイイクカン</v>
       </c>
       <c r="G19" t="str">
-        <v>香川県高松市松縄町1138</v>
+        <v>香川県高松市木太町1530-1</v>
       </c>
       <c r="H19" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I19" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.31188%252C134.062834&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.320841%252C134.075544&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>34.3206815</v>
+        <v>34.32566307</v>
       </c>
       <c r="C20" t="str">
-        <v>134.0740125</v>
+        <v>134.076874</v>
       </c>
       <c r="D20" t="str">
-        <v>第18投票区</v>
+        <v>第19投票区</v>
       </c>
       <c r="E20" t="str">
-        <v>木太南小学校体育館</v>
+        <v>木太小学校体育館</v>
       </c>
       <c r="F20" t="str">
-        <v>キタミナミショウガッコウタイイクカン</v>
+        <v>キタショウガッコウタイイクカン</v>
       </c>
       <c r="G20" t="str">
-        <v>香川県高松市木太町1530-1</v>
+        <v>香川県高松市木太町3480-1</v>
       </c>
       <c r="H20" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I20" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.320841%252C134.075544&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.325096%252C134.076823&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>34.32566307</v>
+        <v>34.33578156</v>
       </c>
       <c r="C21" t="str">
-        <v>134.076874</v>
+        <v>134.0807033</v>
       </c>
       <c r="D21" t="str">
-        <v>第19投票区</v>
+        <v>第20投票区</v>
       </c>
       <c r="E21" t="str">
-        <v>木太小学校体育館</v>
+        <v>木太北部小学校体育館</v>
       </c>
       <c r="F21" t="str">
-        <v>キタショウガッコウタイイクカン</v>
+        <v>キタホクブショウガッコウタイイクカン</v>
       </c>
       <c r="G21" t="str">
-        <v>香川県高松市木太町3480-1</v>
+        <v>香川県高松市木太町2613</v>
       </c>
       <c r="H21" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I21" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.325096%252C134.076823&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.335848%252C134.079912&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>34.33578156</v>
+        <v>34.32577618</v>
       </c>
       <c r="C22" t="str">
-        <v>134.0807033</v>
+        <v>134.0913691</v>
       </c>
       <c r="D22" t="str">
-        <v>第20投票区</v>
+        <v>第21投票区</v>
       </c>
       <c r="E22" t="str">
-        <v>木太北部小学校体育館</v>
+        <v>春日幼稚園</v>
       </c>
       <c r="F22" t="str">
-        <v>キタホクブショウガッコウタイイクカン</v>
+        <v>カスガヨウチエン</v>
       </c>
       <c r="G22" t="str">
-        <v>香川県高松市木太町2613</v>
+        <v>香川県高松市春日町744</v>
       </c>
       <c r="H22" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I22" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.335848%252C134.079912&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.325661%252C134.091286&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000fd9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>34.32577618</v>
+        <v>34.33161206</v>
       </c>
       <c r="C23" t="str">
-        <v>134.0913691</v>
+        <v>134.1072964</v>
       </c>
       <c r="D23" t="str">
-        <v>第21投票区</v>
+        <v>第22投票区</v>
       </c>
       <c r="E23" t="str">
-        <v>春日幼稚園</v>
+        <v>古高松小学校体育館</v>
       </c>
       <c r="F23" t="str">
-        <v>カスガヨウチエン</v>
+        <v>フルタカマツショウガッコウタイイクカン</v>
       </c>
       <c r="G23" t="str">
-        <v>香川県高松市春日町744</v>
+        <v>香川県高松市高松町398</v>
       </c>
       <c r="H23" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I23" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.325661%252C134.091286&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000fd9</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.332405%252C134.106591&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>34.33161206</v>
+        <v>34.34773676</v>
       </c>
       <c r="C24" t="str">
-        <v>134.1072964</v>
+        <v>134.0993093</v>
       </c>
       <c r="D24" t="str">
-        <v>第22投票区</v>
+        <v>第23投票区</v>
       </c>
       <c r="E24" t="str">
-        <v>古高松小学校体育館</v>
+        <v>屋島小学校体育館</v>
       </c>
       <c r="F24" t="str">
-        <v>フルタカマツショウガッコウタイイクカン</v>
+        <v>ヤシマショウガッコウタイイクカン</v>
       </c>
       <c r="G24" t="str">
-        <v>香川県高松市高松町398</v>
+        <v>香川県高松市屋島西町1205-1</v>
       </c>
       <c r="H24" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I24" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.332405%252C134.106591&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.347316%252C134.100637&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>34.34773676</v>
+        <v>34.35436743</v>
       </c>
       <c r="C25" t="str">
-        <v>134.0993093</v>
+        <v>134.116442</v>
       </c>
       <c r="D25" t="str">
-        <v>第23投票区</v>
+        <v>第24投票区</v>
       </c>
       <c r="E25" t="str">
-        <v>屋島小学校体育館</v>
+        <v>屋島東小学校体育館</v>
       </c>
       <c r="F25" t="str">
-        <v>ヤシマショウガッコウタイイクカン</v>
+        <v>ヤシマヒガシショウガッコウタイイクカン</v>
       </c>
       <c r="G25" t="str">
-        <v>香川県高松市屋島西町1205-1</v>
+        <v>香川県高松市屋島東町942-1</v>
       </c>
       <c r="H25" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I25" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.347316%252C134.100637&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.354208%252C134.116611&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>34.35436743</v>
+        <v>34.29621803</v>
       </c>
       <c r="C26" t="str">
-        <v>134.116442</v>
+        <v>134.1125145</v>
       </c>
       <c r="D26" t="str">
-        <v>第24投票区</v>
+        <v>第25投票区</v>
       </c>
       <c r="E26" t="str">
-        <v>屋島東小学校体育館</v>
+        <v>前田小学校体育館</v>
       </c>
       <c r="F26" t="str">
-        <v>ヤシマヒガシショウガッコウタイイクカン</v>
+        <v>マエダショウガッコウタイイクカン</v>
       </c>
       <c r="G26" t="str">
-        <v>香川県高松市屋島東町942-1</v>
+        <v>香川県高松市前田東町819-3</v>
       </c>
       <c r="H26" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I26" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.354208%252C134.116611&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.296382%252C134.113177&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>34.29621803</v>
+        <v>34.30691685</v>
       </c>
       <c r="C27" t="str">
-        <v>134.1125145</v>
+        <v>134.0929974</v>
       </c>
       <c r="D27" t="str">
-        <v>第25投票区</v>
+        <v>第26投票区</v>
       </c>
       <c r="E27" t="str">
-        <v>前田小学校体育館</v>
+        <v>川添小学校体育館</v>
       </c>
       <c r="F27" t="str">
-        <v>マエダショウガッコウタイイクカン</v>
+        <v>カワゾエショウガッコウタイイクカン</v>
       </c>
       <c r="G27" t="str">
-        <v>香川県高松市前田東町819-3</v>
+        <v>香川県高松市東山崎町207-1</v>
       </c>
       <c r="H27" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I27" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.296382%252C134.113177&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306199%252C134.093043&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>34.30691685</v>
+        <v>34.30170506</v>
       </c>
       <c r="C28" t="str">
-        <v>134.0929974</v>
+        <v>134.0700955</v>
       </c>
       <c r="D28" t="str">
-        <v>第26投票区</v>
+        <v>第27投票区</v>
       </c>
       <c r="E28" t="str">
-        <v>川添小学校体育館</v>
+        <v>林小学校体育館</v>
       </c>
       <c r="F28" t="str">
-        <v>カワゾエショウガッコウタイイクカン</v>
+        <v>ハヤシショウガッコウタイイクカン</v>
       </c>
       <c r="G28" t="str">
-        <v>香川県高松市東山崎町207-1</v>
+        <v>香川県高松市林町1108-1</v>
       </c>
       <c r="H28" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I28" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306199%252C134.093043&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.301612%252C134.069787&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>34.30170506</v>
+        <v>34.27391485</v>
       </c>
       <c r="C29" t="str">
-        <v>134.0700955</v>
+        <v>134.069088</v>
       </c>
       <c r="D29" t="str">
-        <v>第27投票区</v>
+        <v>第28投票区</v>
       </c>
       <c r="E29" t="str">
-        <v>林小学校体育館</v>
+        <v>三渓小学校体育館</v>
       </c>
       <c r="F29" t="str">
-        <v>ハヤシショウガッコウタイイクカン</v>
+        <v>サンケイショウガッコウタイイクカン</v>
       </c>
       <c r="G29" t="str">
-        <v>香川県高松市林町1108-1</v>
+        <v>香川県高松市三谷町2173-1</v>
       </c>
       <c r="H29" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I29" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.301612%252C134.069787&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.27407%252C134.068506&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>34.27391485</v>
+        <v>34.29254234</v>
       </c>
       <c r="C30" t="str">
-        <v>134.069088</v>
+        <v>134.0525622</v>
       </c>
       <c r="D30" t="str">
-        <v>第28投票区</v>
+        <v>第29投票区</v>
       </c>
       <c r="E30" t="str">
-        <v>三渓小学校体育館</v>
+        <v>多肥小学校体育館</v>
       </c>
       <c r="F30" t="str">
-        <v>サンケイショウガッコウタイイクカン</v>
+        <v>タヒショウガッコウタイイクカン</v>
       </c>
       <c r="G30" t="str">
-        <v>香川県高松市三谷町2173-1</v>
+        <v>香川県高松市多肥上町902-2</v>
       </c>
       <c r="H30" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I30" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.27407%252C134.068506&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D18&amp;ll%3D34.291913%252C134.052581&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>34.29254234</v>
+        <v>34.27426655</v>
       </c>
       <c r="C31" t="str">
-        <v>134.0525622</v>
+        <v>134.0471239</v>
       </c>
       <c r="D31" t="str">
-        <v>第29投票区</v>
+        <v>第30投票区</v>
       </c>
       <c r="E31" t="str">
-        <v>多肥小学校体育館</v>
+        <v>仏生山小学校体育館</v>
       </c>
       <c r="F31" t="str">
-        <v>タヒショウガッコウタイイクカン</v>
+        <v>ブッショウザンショウガッコウタイイクカン</v>
       </c>
       <c r="G31" t="str">
-        <v>香川県高松市多肥上町902-2</v>
+        <v>香川県高松市仏生山町甲2461</v>
       </c>
       <c r="H31" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I31" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D18&amp;ll%3D34.291913%252C134.052581&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000001</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.274732%252C134.047781&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>34.27426655</v>
+        <v>34.29084694</v>
       </c>
       <c r="C32" t="str">
-        <v>134.0471239</v>
+        <v>134.0238944</v>
       </c>
       <c r="D32" t="str">
-        <v>第30投票区</v>
+        <v>第31投票区</v>
       </c>
       <c r="E32" t="str">
-        <v>仏生山小学校体育館</v>
+        <v>一宮小学校体育館</v>
       </c>
       <c r="F32" t="str">
-        <v>ブッショウザンショウガッコウタイイクカン</v>
+        <v>イチノミヤショウガッコウタイイクカン</v>
       </c>
       <c r="G32" t="str">
-        <v>香川県高松市仏生山町甲2461</v>
+        <v>香川県高松市一宮町672-1</v>
       </c>
       <c r="H32" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I32" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.274732%252C134.047781&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.291104%252C134.024168&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>34.29084694</v>
+        <v>34.27984622</v>
       </c>
       <c r="C33" t="str">
-        <v>134.0238944</v>
+        <v>134.022426</v>
       </c>
       <c r="D33" t="str">
-        <v>第31投票区</v>
+        <v>第32投票区</v>
       </c>
       <c r="E33" t="str">
-        <v>一宮小学校体育館</v>
+        <v>らく楽寺井幼稚園</v>
       </c>
       <c r="F33" t="str">
-        <v>イチノミヤショウガッコウタイイクカン</v>
+        <v>ラクラクテライヨウチエン</v>
       </c>
       <c r="G33" t="str">
-        <v>香川県高松市一宮町672-1</v>
+        <v>香川県高松市寺井町1369-4</v>
       </c>
       <c r="H33" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I33" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.291104%252C134.024168&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.279858%252C134.022473&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000fd9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>34.27984622</v>
+        <v>34.26746144</v>
       </c>
       <c r="C34" t="str">
-        <v>134.022426</v>
+        <v>134.0064324</v>
       </c>
       <c r="D34" t="str">
-        <v>第32投票区</v>
+        <v>第33投票区</v>
       </c>
       <c r="E34" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>川岡小学校体育館</v>
       </c>
       <c r="F34" t="str">
-        <v>ラクラクテライヨウチエン</v>
+        <v>カワオカショウガッコウタイイクカン</v>
       </c>
       <c r="G34" t="str">
-        <v>香川県高松市寺井町1369-4</v>
+        <v>香川県高松市川部町1552</v>
       </c>
       <c r="H34" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I34" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.279858%252C134.022473&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000fd9</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.26759%252C134.006993&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>34.26746144</v>
+        <v>34.28470171</v>
       </c>
       <c r="C35" t="str">
-        <v>134.0064324</v>
+        <v>134.005036</v>
       </c>
       <c r="D35" t="str">
-        <v>第33投票区</v>
+        <v>第34投票区</v>
       </c>
       <c r="E35" t="str">
-        <v>川岡小学校体育館</v>
+        <v>円座小学校体育館</v>
       </c>
       <c r="F35" t="str">
-        <v>カワオカショウガッコウタイイクカン</v>
+        <v>エンザショウガッコウタイイクカン</v>
       </c>
       <c r="G35" t="str">
-        <v>香川県高松市川部町1552</v>
+        <v>香川県高松市円座町1630-2</v>
       </c>
       <c r="H35" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I35" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.26759%252C134.006993&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.285043%252C134.00388&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>34.28470171</v>
+        <v>34.3004296</v>
       </c>
       <c r="C36" t="str">
-        <v>134.005036</v>
+        <v>133.9938507</v>
       </c>
       <c r="D36" t="str">
-        <v>第34投票区</v>
+        <v>第35投票区</v>
       </c>
       <c r="E36" t="str">
-        <v>円座小学校体育館</v>
+        <v>檀紙小学校体育館</v>
       </c>
       <c r="F36" t="str">
-        <v>エンザショウガッコウタイイクカン</v>
+        <v>ダンシショウガッコウタイイクカン</v>
       </c>
       <c r="G36" t="str">
-        <v>香川県高松市円座町1630-2</v>
+        <v>香川県高松市御廐町816</v>
       </c>
       <c r="H36" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I36" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.285043%252C134.00388&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.300177%252C133.994422&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>34.3004296</v>
+        <v>34.32899076</v>
       </c>
       <c r="C37" t="str">
-        <v>133.9938507</v>
+        <v>134.0054569</v>
       </c>
       <c r="D37" t="str">
-        <v>第35投票区</v>
+        <v>第36投票区</v>
       </c>
       <c r="E37" t="str">
-        <v>檀紙小学校体育館</v>
+        <v>弦打小学校体育館</v>
       </c>
       <c r="F37" t="str">
-        <v>ダンシショウガッコウタイイクカン</v>
+        <v>ツルウチショウガッコウタイイクカン</v>
       </c>
       <c r="G37" t="str">
-        <v>香川県高松市御廐町816</v>
+        <v>香川県高松市鶴市町374-1</v>
       </c>
       <c r="H37" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I37" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.300177%252C133.994422&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.328406%252C134.004553&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>34.32899076</v>
+        <v>34.32667095</v>
       </c>
       <c r="C38" t="str">
-        <v>134.0054569</v>
+        <v>133.9885807</v>
       </c>
       <c r="D38" t="str">
-        <v>第36投票区</v>
+        <v>第37投票区</v>
       </c>
       <c r="E38" t="str">
-        <v>弦打小学校体育館</v>
+        <v>鬼無小学校体育館</v>
       </c>
       <c r="F38" t="str">
-        <v>ツルウチショウガッコウタイイクカン</v>
+        <v>キナシショウガッコウタイイクカン</v>
       </c>
       <c r="G38" t="str">
-        <v>香川県高松市鶴市町374-1</v>
+        <v>香川県高松市鬼無町佐藤607-1</v>
       </c>
       <c r="H38" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I38" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.328406%252C134.004553&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.326826%252C133.990697&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>34.32667095</v>
+        <v>34.34521791</v>
       </c>
       <c r="C39" t="str">
-        <v>133.9885807</v>
+        <v>133.9985514</v>
       </c>
       <c r="D39" t="str">
-        <v>第37投票区</v>
+        <v>第38投票区</v>
       </c>
       <c r="E39" t="str">
-        <v>鬼無小学校体育館</v>
+        <v>香西小学校体育館</v>
       </c>
       <c r="F39" t="str">
-        <v>キナシショウガッコウタイイクカン</v>
+        <v>コウザイショウガッコウタイイクカン</v>
       </c>
       <c r="G39" t="str">
-        <v>香川県高松市鬼無町佐藤607-1</v>
+        <v>香川県高松市香西南町703-1</v>
       </c>
       <c r="H39" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I39" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.326826%252C133.990697&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.344806%252C133.998259&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>34.34521791</v>
+        <v>34.35806715</v>
       </c>
       <c r="C40" t="str">
-        <v>133.9985514</v>
+        <v>133.9686994</v>
       </c>
       <c r="D40" t="str">
-        <v>第38投票区</v>
+        <v>第39投票区</v>
       </c>
       <c r="E40" t="str">
-        <v>香西小学校体育館</v>
+        <v>下笠居小学校体育館</v>
       </c>
       <c r="F40" t="str">
-        <v>コウザイショウガッコウタイイクカン</v>
+        <v>シモカサイショウガッコウタイイクカン</v>
       </c>
       <c r="G40" t="str">
-        <v>香川県高松市香西南町703-1</v>
+        <v>香川県高松市生島町345</v>
       </c>
       <c r="H40" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I40" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.344806%252C133.998259&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.358386%252C133.967994&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>34.35806715</v>
+        <v>34.39209711</v>
       </c>
       <c r="C41" t="str">
-        <v>133.9686994</v>
+        <v>134.0517056</v>
       </c>
       <c r="D41" t="str">
-        <v>第39投票区</v>
+        <v>第40投票区</v>
       </c>
       <c r="E41" t="str">
-        <v>下笠居小学校体育館</v>
+        <v>女木コミュニティセンター</v>
       </c>
       <c r="F41" t="str">
-        <v>シモカサイショウガッコウタイイクカン</v>
+        <v>メギコミュニティセンター</v>
       </c>
       <c r="G41" t="str">
-        <v>香川県高松市生島町345</v>
+        <v>香川県高松市女木町203-1</v>
       </c>
       <c r="H41" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I41" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.358386%252C133.967994&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f19</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391681%252C134.052529&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>34.39209711</v>
+        <v>34.42245501</v>
       </c>
       <c r="C42" t="str">
-        <v>134.0517056</v>
+        <v>134.0541423</v>
       </c>
       <c r="D42" t="str">
-        <v>第40投票区</v>
+        <v>第41投票区</v>
       </c>
       <c r="E42" t="str">
-        <v>女木コミュニティセンター</v>
+        <v>男木コミュニティセンター</v>
       </c>
       <c r="F42" t="str">
-        <v>メギコミュニティセンター</v>
+        <v>オギコミュニティセンター</v>
       </c>
       <c r="G42" t="str">
-        <v>香川県高松市女木町203-1</v>
+        <v>香川県高松市男木町1988</v>
       </c>
       <c r="H42" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I42" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391681%252C134.052529&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.421031%252C134.0555&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>34.42245501</v>
+        <v>34.27577882</v>
       </c>
       <c r="C43" t="str">
-        <v>134.0541423</v>
+        <v>134.0893463</v>
       </c>
       <c r="D43" t="str">
-        <v>第41投票区</v>
+        <v>第42投票区</v>
       </c>
       <c r="E43" t="str">
-        <v>男木コミュニティセンター</v>
+        <v>川島小学校体育館</v>
       </c>
       <c r="F43" t="str">
-        <v>オギコミュニティセンター</v>
+        <v>カワシマショウガッコウタイイクカン</v>
       </c>
       <c r="G43" t="str">
-        <v>香川県高松市男木町1988</v>
+        <v>香川県高松市川島東町864-1</v>
       </c>
       <c r="H43" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I43" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.421031%252C134.0555&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.275668%252C134.08907&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>34.27577882</v>
+        <v>34.27456128</v>
       </c>
       <c r="C44" t="str">
-        <v>134.0893463</v>
+        <v>134.1028663</v>
       </c>
       <c r="D44" t="str">
-        <v>第42投票区</v>
+        <v>第43投票区</v>
       </c>
       <c r="E44" t="str">
-        <v>川島小学校体育館</v>
+        <v>十河小学校体育館</v>
       </c>
       <c r="F44" t="str">
-        <v>カワシマショウガッコウタイイクカン</v>
+        <v>ソゴウショウガッコウタイイクカン</v>
       </c>
       <c r="G44" t="str">
-        <v>香川県高松市川島東町864-1</v>
+        <v>香川県高松市十川西町366-5</v>
       </c>
       <c r="H44" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I44" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.275668%252C134.08907&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.274712%252C134.102236&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>34.27456128</v>
+        <v>34.23911322</v>
       </c>
       <c r="C45" t="str">
-        <v>134.1028663</v>
+        <v>134.0975745</v>
       </c>
       <c r="D45" t="str">
-        <v>第43投票区</v>
+        <v>第44投票区</v>
       </c>
       <c r="E45" t="str">
-        <v>十河小学校体育館</v>
+        <v>東植田小学校体育館</v>
       </c>
       <c r="F45" t="str">
-        <v>ソゴウショウガッコウタイイクカン</v>
+        <v>ヒガシウエタショウガッコウタイイクカン</v>
       </c>
       <c r="G45" t="str">
-        <v>香川県高松市十川西町366-5</v>
+        <v>香川県高松市東植田町2008</v>
       </c>
       <c r="H45" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I45" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.274712%252C134.102236&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.238958%252C134.097899&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>34.23911322</v>
+        <v>34.19370212</v>
       </c>
       <c r="C46" t="str">
-        <v>134.0975745</v>
+        <v>134.0980816</v>
       </c>
       <c r="D46" t="str">
-        <v>第44投票区</v>
+        <v>第45投票区</v>
       </c>
       <c r="E46" t="str">
-        <v>東植田小学校体育館</v>
+        <v>東植田小学校菅沢分校体育館</v>
       </c>
       <c r="F46" t="str">
-        <v>ヒガシウエタショウガッコウタイイクカン</v>
+        <v>ヒガシウエタショウガッコウスゲザワブンコウタイイクカン</v>
       </c>
       <c r="G46" t="str">
-        <v>香川県高松市東植田町2008</v>
+        <v>香川県高松市菅沢町339</v>
       </c>
       <c r="H46" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I46" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.238958%252C134.097899&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.193567%252C134.098236&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>34.19370212</v>
+        <v>34.23940326</v>
       </c>
       <c r="C47" t="str">
-        <v>134.0980816</v>
+        <v>134.0789695</v>
       </c>
       <c r="D47" t="str">
-        <v>第45投票区</v>
+        <v>第46投票区</v>
       </c>
       <c r="E47" t="str">
-        <v>東植田小学校菅沢分校体育館</v>
+        <v>植田小学校体育館</v>
       </c>
       <c r="F47" t="str">
-        <v>ヒガシウエタショウガッコウスゲザワブンコウタイイクカン</v>
+        <v>ウエタショウガッコウタイイクカン</v>
       </c>
       <c r="G47" t="str">
-        <v>香川県高松市菅沢町339</v>
+        <v>香川県高松市西植田町2337</v>
       </c>
       <c r="H47" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I47" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.193567%252C134.098236&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.239421%252C134.077851&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>34.23940326</v>
+        <v>34.32756977</v>
       </c>
       <c r="C48" t="str">
-        <v>134.0789695</v>
+        <v>134.0990025</v>
       </c>
       <c r="D48" t="str">
-        <v>第46投票区</v>
+        <v>第47投票区</v>
       </c>
       <c r="E48" t="str">
-        <v>植田小学校体育館</v>
+        <v>古高松南小学校体育館</v>
       </c>
       <c r="F48" t="str">
-        <v>ウエタショウガッコウタイイクカン</v>
+        <v>フルタカマツミナミショウガッコウタイイクカン</v>
       </c>
       <c r="G48" t="str">
-        <v>香川県高松市西植田町2337</v>
+        <v>香川県高松市新田町甲2605</v>
       </c>
       <c r="H48" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I48" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.239421%252C134.077851&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.326985%252C134.098855&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>34.32756977</v>
+        <v>34.3509721</v>
       </c>
       <c r="C49" t="str">
-        <v>134.0990025</v>
+        <v>134.0899852</v>
       </c>
       <c r="D49" t="str">
-        <v>第47投票区</v>
+        <v>第48投票区</v>
       </c>
       <c r="E49" t="str">
-        <v>古高松南小学校体育館</v>
+        <v>屋島西小学校体育館</v>
       </c>
       <c r="F49" t="str">
-        <v>フルタカマツミナミショウガッコウタイイクカン</v>
+        <v>ヤシマニシショウガッコウタイイクカン</v>
       </c>
       <c r="G49" t="str">
-        <v>香川県高松市新田町甲2605</v>
+        <v>香川県高松市屋島西町2469</v>
       </c>
       <c r="H49" t="str">
         <v>香川県第１区</v>
       </c>
       <c r="I49" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.326985%252C134.098855&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.351725%252C134.090476&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="str">
-        <v>34.3509721</v>
+        <v>34.19621134</v>
       </c>
       <c r="C50" t="str">
-        <v>134.0899852</v>
+        <v>134.0415181</v>
       </c>
       <c r="D50" t="str">
-        <v>第48投票区</v>
+        <v>第49投票区</v>
       </c>
       <c r="E50" t="str">
-        <v>屋島西小学校体育館</v>
+        <v>塩江コミュニティセンター</v>
       </c>
       <c r="F50" t="str">
-        <v>ヤシマニシショウガッコウタイイクカン</v>
+        <v>シオノエコミュニティセンター</v>
       </c>
       <c r="G50" t="str">
-        <v>香川県高松市屋島西町2469</v>
+        <v>香川県高松市塩江町安原下第2号1645</v>
       </c>
       <c r="H50" t="str">
-        <v>香川県第１区</v>
+        <v>香川県第２区</v>
       </c>
       <c r="I50" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.351725%252C134.090476&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.196482%252C134.042363&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;sa%3D1&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="str">
-        <v>34.19621134</v>
+        <v>34.1561263</v>
       </c>
       <c r="C51" t="str">
-        <v>134.0415181</v>
+        <v>134.0245727</v>
       </c>
       <c r="D51" t="str">
-        <v>第49投票区</v>
+        <v>第50投票区</v>
       </c>
       <c r="E51" t="str">
-        <v>塩江コミュニティセンター</v>
+        <v>旧安原小学校戸石分校</v>
       </c>
       <c r="F51" t="str">
-        <v>シオノエコミュニティセンター</v>
+        <v>キュウヤスハラショウガッコウトイシブンコウ</v>
       </c>
       <c r="G51" t="str">
-        <v>香川県高松市塩江町安原下第2号1645</v>
+        <v>香川県高松市塩江町安原下第2号857</v>
       </c>
       <c r="H51" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I51" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.196482%252C134.042363&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;sa%3D1&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.154981%252C134.025195&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="str">
-        <v>34.1561263</v>
+        <v>34.17008316</v>
       </c>
       <c r="C52" t="str">
-        <v>134.0245727</v>
+        <v>134.0833202</v>
       </c>
       <c r="D52" t="str">
-        <v>第50投票区</v>
+        <v>第51投票区</v>
       </c>
       <c r="E52" t="str">
-        <v>旧安原小学校戸石分校</v>
+        <v>旧塩江小学校ランチルーム</v>
       </c>
       <c r="F52" t="str">
-        <v>キュウヤスハラショウガッコウトイシブンコウ</v>
+        <v>キュウシオノエショウガッコウランチルーム</v>
       </c>
       <c r="G52" t="str">
-        <v>香川県高松市塩江町安原下第2号857</v>
+        <v>香川県高松市塩江町安原上東365</v>
       </c>
       <c r="H52" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I52" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.154981%252C134.025195&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.171672%252C134.082657&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="str">
-        <v>34.17008316</v>
+        <v>34.15250507</v>
       </c>
       <c r="C53" t="str">
-        <v>134.0833202</v>
+        <v>134.0765379</v>
       </c>
       <c r="D53" t="str">
-        <v>第51投票区</v>
+        <v>第52投票区</v>
       </c>
       <c r="E53" t="str">
-        <v>旧塩江小学校ランチルーム</v>
+        <v>旧上西小学校職員室</v>
       </c>
       <c r="F53" t="str">
-        <v>キュウシオノエショウガッコウランチルーム</v>
+        <v>キュウカミニシショウガッコウショクインシツ</v>
       </c>
       <c r="G53" t="str">
-        <v>香川県高松市塩江町安原上東365</v>
+        <v>香川県高松市塩江町上西乙461</v>
       </c>
       <c r="H53" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I53" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.171672%252C134.082657&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.151888%252C134.076605&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="str">
-        <v>34.15250507</v>
+        <v>34.12613672</v>
       </c>
       <c r="C54" t="str">
-        <v>134.0765379</v>
+        <v>134.073821</v>
       </c>
       <c r="D54" t="str">
-        <v>第52投票区</v>
+        <v>第53投票区</v>
       </c>
       <c r="E54" t="str">
-        <v>旧上西小学校職員室</v>
+        <v>西山ふれあいセンター</v>
       </c>
       <c r="F54" t="str">
-        <v>キュウカミニシショウガッコウショクインシツ</v>
+        <v>ニシヤマフレアイセンター</v>
       </c>
       <c r="G54" t="str">
-        <v>香川県高松市塩江町上西乙461</v>
+        <v>香川県高松市塩江町上西甲947-3</v>
       </c>
       <c r="H54" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I54" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.151888%252C134.076605&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-00003f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.124467%252C134.073137&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="str">
-        <v>34.12613672</v>
+        <v>34.24030943</v>
       </c>
       <c r="C55" t="str">
-        <v>134.073821</v>
+        <v>134.0189916</v>
       </c>
       <c r="D55" t="str">
-        <v>第53投票区</v>
+        <v>第55投票区</v>
       </c>
       <c r="E55" t="str">
-        <v>西山ふれあいセンター</v>
+        <v>香南町由佐農村環境改善センター</v>
       </c>
       <c r="F55" t="str">
-        <v>ニシヤマフレアイセンター</v>
+        <v>コウナンチョウユサノウソンカンキョウカイゼンセンター</v>
       </c>
       <c r="G55" t="str">
-        <v>香川県高松市塩江町上西甲947-3</v>
+        <v>香川県高松市香南町由佐357-2</v>
       </c>
       <c r="H55" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I55" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D16&amp;ll%3D34.124467%252C134.073137&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.240305%252C134.018946&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="str">
-        <v>34.24030943</v>
+        <v>34.24521421</v>
       </c>
       <c r="C56" t="str">
-        <v>134.0189916</v>
+        <v>134.0003609</v>
       </c>
       <c r="D56" t="str">
-        <v>第55投票区</v>
+        <v>第56投票区</v>
       </c>
       <c r="E56" t="str">
-        <v>香南町由佐農村環境改善センター</v>
+        <v>香南町池西農村環境改善センター</v>
       </c>
       <c r="F56" t="str">
-        <v>コウナンチョウユサノウソンカンキョウカイゼンセンター</v>
+        <v>コウナンチョウイケニシノウソンカンキョウカイゼンセンター</v>
       </c>
       <c r="G56" t="str">
-        <v>香川県高松市香南町由佐357-2</v>
+        <v>香川県高松市香南町池内522-1</v>
       </c>
       <c r="H56" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I56" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.240305%252C134.018946&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.245059%252C134.000428&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="str">
-        <v>34.24521421</v>
+        <v>34.26693233</v>
       </c>
       <c r="C57" t="str">
-        <v>134.0003609</v>
+        <v>134.0269817</v>
       </c>
       <c r="D57" t="str">
-        <v>第56投票区</v>
+        <v>第57投票区</v>
       </c>
       <c r="E57" t="str">
-        <v>香南町池西農村環境改善センター</v>
+        <v>大野小学校南校舎（教育相談室）</v>
       </c>
       <c r="F57" t="str">
-        <v>コウナンチョウイケニシノウソンカンキョウカイゼンセンター</v>
+        <v>オオノショウガッコウミナミコウシャ（キョウイクソウダンシツ）</v>
       </c>
       <c r="G57" t="str">
-        <v>香川県高松市香南町池内522-1</v>
+        <v>香川県高松市香川町大野1045-1</v>
       </c>
       <c r="H57" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I57" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.245059%252C134.000428&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.267021%252C134.026228&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="str">
-        <v>34.26693233</v>
+        <v>34.259358</v>
       </c>
       <c r="C58" t="str">
-        <v>134.0269817</v>
+        <v>134.0408212</v>
       </c>
       <c r="D58" t="str">
-        <v>第57投票区</v>
+        <v>第58投票区</v>
       </c>
       <c r="E58" t="str">
-        <v>大野小学校南校舎（教育相談室）</v>
+        <v>浅野小学校体育館</v>
       </c>
       <c r="F58" t="str">
-        <v>オオノショウガッコウミナミコウシャ（キョウイクソウダンシツ）</v>
+        <v>アサノショウガッコウタイイクカン</v>
       </c>
       <c r="G58" t="str">
-        <v>香川県高松市香川町大野1045-1</v>
+        <v>香川県高松市香川町浅野3088</v>
       </c>
       <c r="H58" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I58" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.267021%252C134.026228&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.25899%252C134.041253&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="str">
-        <v>34.259358</v>
+        <v>34.24146399</v>
       </c>
       <c r="C59" t="str">
-        <v>134.0408212</v>
+        <v>134.0344268</v>
       </c>
       <c r="D59" t="str">
-        <v>第58投票区</v>
+        <v>第59投票区</v>
       </c>
       <c r="E59" t="str">
-        <v>浅野小学校体育館</v>
+        <v>川東コミュニティセンター</v>
       </c>
       <c r="F59" t="str">
-        <v>アサノショウガッコウタイイクカン</v>
+        <v>カワヒガシコミュニティセンター</v>
       </c>
       <c r="G59" t="str">
-        <v>香川県高松市香川町浅野3088</v>
+        <v>香川県高松市香川町川東上1865-13</v>
       </c>
       <c r="H59" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I59" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.25899%252C134.041253&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.241158%252C134.034113&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="str">
-        <v>34.24146399</v>
+        <v>34.20446741</v>
       </c>
       <c r="C60" t="str">
-        <v>134.0344268</v>
+        <v>134.061694</v>
       </c>
       <c r="D60" t="str">
-        <v>第59投票区</v>
+        <v>第60投票区</v>
       </c>
       <c r="E60" t="str">
-        <v>川東コミュニティセンター</v>
+        <v>東谷コミュニティセンター</v>
       </c>
       <c r="F60" t="str">
-        <v>カワヒガシコミュニティセンター</v>
+        <v>ヒガシタニコミュニティセンター</v>
       </c>
       <c r="G60" t="str">
-        <v>香川県高松市香川町川東上1865-13</v>
+        <v>香川県高松市香川町東谷873-3</v>
       </c>
       <c r="H60" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I60" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.241158%252C134.034113&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.204636%252C134.061702&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="str">
-        <v>34.20446741</v>
+        <v>34.21202672</v>
       </c>
       <c r="C61" t="str">
-        <v>134.061694</v>
+        <v>134.0314009</v>
       </c>
       <c r="D61" t="str">
-        <v>第60投票区</v>
+        <v>第61投票区</v>
       </c>
       <c r="E61" t="str">
-        <v>東谷コミュニティセンター</v>
+        <v>香川町多目的研修集会施設</v>
       </c>
       <c r="F61" t="str">
-        <v>ヒガシタニコミュニティセンター</v>
+        <v>カガワチョウタモクテキケンシュウシュウカイシセツ</v>
       </c>
       <c r="G61" t="str">
-        <v>香川県高松市香川町東谷873-3</v>
+        <v>香川県高松市香川町安原下第3号194-1</v>
       </c>
       <c r="H61" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I61" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.204636%252C134.061702&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.211938%252C134.031248&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="str">
-        <v>34.21202672</v>
+        <v>34.30614945</v>
       </c>
       <c r="C62" t="str">
-        <v>134.0314009</v>
+        <v>133.9638445</v>
       </c>
       <c r="D62" t="str">
-        <v>第61投票区</v>
+        <v>第62投票区</v>
       </c>
       <c r="E62" t="str">
-        <v>香川町多目的研修集会施設</v>
+        <v>国分寺北部小学校体育館</v>
       </c>
       <c r="F62" t="str">
-        <v>カガワチョウタモクテキケンシュウシュウカイシセツ</v>
+        <v>コクブンジホクブショウガッコウタイイクカン</v>
       </c>
       <c r="G62" t="str">
-        <v>香川県高松市香川町安原下第3号194-1</v>
+        <v>香川県高松市国分寺町新居1880</v>
       </c>
       <c r="H62" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I62" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.211938%252C134.031248&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306114%252C133.962785&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="str">
-        <v>34.30614945</v>
+        <v>34.29733908</v>
       </c>
       <c r="C63" t="str">
-        <v>133.9638445</v>
+        <v>133.9648992</v>
       </c>
       <c r="D63" t="str">
-        <v>第62投票区</v>
+        <v>第63投票区</v>
       </c>
       <c r="E63" t="str">
-        <v>国分寺北部小学校体育館</v>
+        <v>国分寺中学校体育館</v>
       </c>
       <c r="F63" t="str">
-        <v>コクブンジホクブショウガッコウタイイクカン</v>
+        <v>コクブンジチュウガッコウタイイクカン</v>
       </c>
       <c r="G63" t="str">
-        <v>香川県高松市国分寺町新居1880</v>
+        <v>香川県高松市国分寺町新居1131-1</v>
       </c>
       <c r="H63" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I63" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.306114%252C133.962785&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.297636%252C133.963947&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="str">
-        <v>34.29733908</v>
+        <v>34.28372508</v>
       </c>
       <c r="C64" t="str">
-        <v>133.9648992</v>
+        <v>133.9609987</v>
       </c>
       <c r="D64" t="str">
-        <v>第63投票区</v>
+        <v>第64投票区</v>
       </c>
       <c r="E64" t="str">
-        <v>国分寺中学校体育館</v>
+        <v>国分寺南部小学校体育館</v>
       </c>
       <c r="F64" t="str">
-        <v>コクブンジチュウガッコウタイイクカン</v>
+        <v>コクブンジナンブショウガッコウタイイクカン</v>
       </c>
       <c r="G64" t="str">
-        <v>香川県高松市国分寺町新居1131-1</v>
+        <v>香川県高松市国分寺町福家甲3005</v>
       </c>
       <c r="H64" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I64" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.297636%252C133.963947&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.28396%252C133.961275&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="str">
-        <v>34.28372508</v>
+        <v>34.38438031</v>
       </c>
       <c r="C65" t="str">
-        <v>133.9609987</v>
+        <v>134.1266054</v>
       </c>
       <c r="D65" t="str">
-        <v>第64投票区</v>
+        <v>第65投票区</v>
       </c>
       <c r="E65" t="str">
-        <v>国分寺南部小学校体育館</v>
+        <v>庵治支所</v>
       </c>
       <c r="F65" t="str">
-        <v>コクブンジナンブショウガッコウタイイクカン</v>
+        <v>アジシショ</v>
       </c>
       <c r="G65" t="str">
-        <v>香川県高松市国分寺町福家甲3005</v>
+        <v>香川県高松市庵治町6393-5</v>
       </c>
       <c r="H65" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I65" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.28396%252C133.961275&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f3f</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.384035%252C134.126592&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D10-2-00006c</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="str">
-        <v>34.38438031</v>
+        <v>34.39146757</v>
       </c>
       <c r="C66" t="str">
-        <v>134.1266054</v>
+        <v>134.1528432</v>
       </c>
       <c r="D66" t="str">
-        <v>第65投票区</v>
+        <v>第66投票区</v>
       </c>
       <c r="E66" t="str">
-        <v>庵治支所</v>
+        <v>鎌野自治会館</v>
       </c>
       <c r="F66" t="str">
-        <v>アジシショ</v>
+        <v>カマノジチカイカン</v>
       </c>
       <c r="G66" t="str">
-        <v>香川県高松市庵治町6393-5</v>
+        <v>香川県高松市庵治町4510-12</v>
       </c>
       <c r="H66" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I66" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.384035%252C134.126592&amp;t%3Droadmap&amp;mp%3D10&amp;op%3D70&amp;vlf%3D10-2-00006c</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391472%252C134.152642&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="str">
-        <v>34.39146757</v>
+        <v>34.36485892</v>
       </c>
       <c r="C67" t="str">
-        <v>134.1528432</v>
+        <v>134.156614</v>
       </c>
       <c r="D67" t="str">
-        <v>第66投票区</v>
+        <v>第67投票区</v>
       </c>
       <c r="E67" t="str">
-        <v>鎌野自治会館</v>
+        <v>高尻地区自治連合会会館</v>
       </c>
       <c r="F67" t="str">
-        <v>カマノジチカイカン</v>
+        <v>コウジリチクジチレンゴウカイカイカン</v>
       </c>
       <c r="G67" t="str">
-        <v>香川県高松市庵治町4510-12</v>
+        <v>香川県高松市庵治町3015-3</v>
       </c>
       <c r="H67" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I67" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.391472%252C134.152642&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.365439%252C134.155871&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="str">
-        <v>34.36485892</v>
+        <v>34.40961075</v>
       </c>
       <c r="C68" t="str">
-        <v>134.156614</v>
+        <v>134.1067227</v>
       </c>
       <c r="D68" t="str">
-        <v>第67投票区</v>
+        <v>第68投票区</v>
       </c>
       <c r="E68" t="str">
-        <v>高尻地区自治連合会会館</v>
+        <v>大島青松園大島会館</v>
       </c>
       <c r="F68" t="str">
-        <v>コウジリチクジチレンゴウカイカイカン</v>
+        <v>オオシマセイショウエンオオシマカイカン</v>
       </c>
       <c r="G68" t="str">
-        <v>香川県高松市庵治町3015-3</v>
+        <v>香川県高松市庵治町6034-1</v>
       </c>
       <c r="H68" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I68" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.365439%252C134.155871&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.408761%252C134.106256&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="str">
-        <v>34.40961075</v>
+        <v>34.33392676</v>
       </c>
       <c r="C69" t="str">
-        <v>134.1067227</v>
+        <v>134.1520889</v>
       </c>
       <c r="D69" t="str">
-        <v>第68投票区</v>
+        <v>第69投票区</v>
       </c>
       <c r="E69" t="str">
-        <v>大島青松園大島会館</v>
+        <v>牟礼南小学校体育館</v>
       </c>
       <c r="F69" t="str">
-        <v>オオシマセイショウエンオオシマカイカン</v>
+        <v>ムレミナミショウガッコウタイイクカン</v>
       </c>
       <c r="G69" t="str">
-        <v>香川県高松市庵治町6034-1</v>
+        <v>香川県高松市牟礼町大町1115-1</v>
       </c>
       <c r="H69" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I69" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.408761%252C134.106256&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.333754%252C134.152805&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D-1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="str">
-        <v>34.33392676</v>
+        <v>34.33613857</v>
       </c>
       <c r="C70" t="str">
-        <v>134.1520889</v>
+        <v>134.1426854</v>
       </c>
       <c r="D70" t="str">
-        <v>第69投票区</v>
+        <v>第70投票区</v>
       </c>
       <c r="E70" t="str">
-        <v>牟礼南小学校体育館</v>
+        <v>大町コミュニティセンター</v>
       </c>
       <c r="F70" t="str">
-        <v>ムレミナミショウガッコウタイイクカン</v>
+        <v>オオマチコミュニティセンター</v>
       </c>
       <c r="G70" t="str">
-        <v>香川県高松市牟礼町大町1115-1</v>
+        <v>香川県高松市牟礼町大町1463-2</v>
       </c>
       <c r="H70" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I70" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.333754%252C134.152805&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D-1</v>
+        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.336143%252C134.141701&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D60-2-000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="str">
-        <v>34.33613857</v>
+        <v>34.35111416</v>
       </c>
       <c r="C71" t="str">
-        <v>134.1426854</v>
+        <v>134.1255468</v>
       </c>
       <c r="D71" t="str">
-        <v>第70投票区</v>
+        <v>第71投票区</v>
       </c>
       <c r="E71" t="str">
-        <v>大町コミュニティセンター</v>
+        <v>牟礼北小学校体育館</v>
       </c>
       <c r="F71" t="str">
-        <v>オオマチコミュニティセンター</v>
+        <v>ムレキタショウガッコウタイイクカン</v>
       </c>
       <c r="G71" t="str">
-        <v>香川県高松市牟礼町大町1463-2</v>
+        <v>香川県高松市牟礼町牟礼2900-1</v>
       </c>
       <c r="H71" t="str">
         <v>香川県第２区</v>
       </c>
       <c r="I71" t="str">
-        <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.336143%252C134.141701&amp;t%3Droadmap&amp;mp%3D60&amp;op%3D70&amp;vlf%3D60-2-000001</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>71</v>
-      </c>
-      <c r="B72" t="str">
-        <v>34.35111416</v>
-      </c>
-      <c r="C72" t="str">
-        <v>134.1255468</v>
-      </c>
-      <c r="D72" t="str">
-        <v>第71投票区</v>
-      </c>
-      <c r="E72" t="str">
-        <v>牟礼北小学校体育館</v>
-      </c>
-      <c r="F72" t="str">
-        <v>ムレキタショウガッコウタイイクカン</v>
-      </c>
-      <c r="G72" t="str">
-        <v>香川県高松市牟礼町牟礼2900-1</v>
-      </c>
-      <c r="H72" t="str">
-        <v>香川県第２区</v>
-      </c>
-      <c r="I72" t="str">
         <v>https://takamatsu.geocloud.jp/webgis/?z%3D17&amp;ll%3D34.350782%252C134.125807&amp;t%3Droadmap&amp;mp%3D30&amp;op%3D70&amp;vlf%3D30-2-000f2f</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I71"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/polling_place_list/data.xlsx
+++ b/data/polling_place_list/data.xlsx
@@ -1088,10 +1088,10 @@
         <v>第21投票区</v>
       </c>
       <c r="E22" t="str">
-        <v>春日幼稚園</v>
+        <v>旧春日幼稚園</v>
       </c>
       <c r="F22" t="str">
-        <v>カスガヨウチエン</v>
+        <v>キュウカスガヨウチエン</v>
       </c>
       <c r="G22" t="str">
         <v>香川県高松市春日町744</v>
@@ -1335,22 +1335,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>34.28262774</v>
+        <v>34.29253484447429</v>
       </c>
       <c r="C30" t="str">
-        <v>134.0510228</v>
+        <v>134.05250434211888</v>
       </c>
       <c r="D30" t="str">
         <v>第29投票区</v>
       </c>
       <c r="E30" t="str">
-        <v>龍雲中学校体育館</v>
+        <v>多肥小学校体育館</v>
       </c>
       <c r="F30" t="str">
-        <v>リュウウンチュウガッコウタイイクカン</v>
+        <v>タヒショウガッコウタイイクカン</v>
       </c>
       <c r="G30" t="str">
-        <v>香川県高松市出作町331-2</v>
+        <v>香川県高松市多肥上町902-2</v>
       </c>
       <c r="H30" t="str">
         <v>香川県第１区</v>
@@ -1431,22 +1431,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>34.27984622</v>
+        <v>34.28638923532128</v>
       </c>
       <c r="C33" t="str">
-        <v>134.022426</v>
+        <v>134.02356112267915</v>
       </c>
       <c r="D33" t="str">
         <v>第32投票区</v>
       </c>
       <c r="E33" t="str">
-        <v>らく楽寺井幼稚園</v>
+        <v>高松南高校校舎棟西館</v>
       </c>
       <c r="F33" t="str">
-        <v>ラクラクテライヨウチエン</v>
+        <v>タカマツミナミコウコウコウシャトウニシカン</v>
       </c>
       <c r="G33" t="str">
-        <v>香川県高松市寺井町1369-4</v>
+        <v>香川県高松市一宮町531</v>
       </c>
       <c r="H33" t="str">
         <v>香川県第１区</v>
@@ -1751,22 +1751,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>34.27577882</v>
+        <v>34.27696</v>
       </c>
       <c r="C43" t="str">
-        <v>134.0893463</v>
+        <v>134.08578</v>
       </c>
       <c r="D43" t="str">
         <v>第42投票区</v>
       </c>
       <c r="E43" t="str">
-        <v>川島小学校体育館</v>
+        <v>山田総合センター内大ホール</v>
       </c>
       <c r="F43" t="str">
-        <v>カワシマショウガッコウタイイクカン</v>
+        <v>ヤマダソウゴウセンターナイダイホール</v>
       </c>
       <c r="G43" t="str">
-        <v>香川県高松市川島東町864-1</v>
+        <v>香川県高松市川島本町191-10</v>
       </c>
       <c r="H43" t="str">
         <v>香川県第１区</v>
@@ -2455,22 +2455,22 @@
         <v>65</v>
       </c>
       <c r="B65" t="str">
-        <v>34.38524257</v>
+        <v>34.3840175</v>
       </c>
       <c r="C65" t="str">
-        <v>134.1298909</v>
+        <v>134.12656556</v>
       </c>
       <c r="D65" t="str">
         <v>第65投票区</v>
       </c>
       <c r="E65" t="str">
-        <v>庵治コミュニティセンター</v>
+        <v>庵治支所</v>
       </c>
       <c r="F65" t="str">
-        <v>アジコミュニティセンター</v>
+        <v>アジシショ</v>
       </c>
       <c r="G65" t="str">
-        <v>香川県高松市庵治町888-1</v>
+        <v>香川県高松市庵治町6393-5</v>
       </c>
       <c r="H65" t="str">
         <v>香川県第２区</v>
